--- a/TEST.xlsx
+++ b/TEST.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\QF-PRO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043535D6-5E33-4232-888E-DC479E66286F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64ADFE9D-E8C4-45F1-B91E-E88094BBB80C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="243">
   <si>
     <t>FORMA</t>
   </si>
@@ -762,6 +762,9 @@
   </si>
   <si>
     <t>DROGA Z</t>
+  </si>
+  <si>
+    <t>UI</t>
   </si>
 </sst>
 </file>
@@ -838,7 +841,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -857,6 +860,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1198,8 +1202,8 @@
   <dimension ref="A1:AH65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G39" sqref="G39"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4731,7 +4735,7 @@
         <v>179</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>126</v>
+        <v>242</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>195</v>
@@ -4811,7 +4815,7 @@
         <v>179</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>126</v>
+        <v>242</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>195</v>
@@ -4890,7 +4894,7 @@
       <c r="C46" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="10" t="s">
         <v>126</v>
       </c>
       <c r="E46" s="9" t="s">

--- a/TEST.xlsx
+++ b/TEST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\QF-PRO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905F6A63-B5E5-4C26-B986-20976F4DDCAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D9D2D9-7958-4D19-B60A-291AEE6BB1BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1908,8 +1908,8 @@
   <dimension ref="A1:AF114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K114" sqref="K114"/>
+      <pane ySplit="2" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2852,6 +2852,7 @@
         <v>0.1</v>
       </c>
       <c r="Z13" s="16"/>
+      <c r="AB13" s="16"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
@@ -7146,7 +7147,7 @@
       <c r="C79" t="s">
         <v>167</v>
       </c>
-      <c r="D79" s="7" t="s">
+      <c r="D79" s="16" t="s">
         <v>107</v>
       </c>
       <c r="E79" s="16" t="s">
@@ -9164,7 +9165,7 @@
       <c r="J106" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="K106" t="s">
+      <c r="K106" s="16" t="s">
         <v>13</v>
       </c>
       <c r="L106" s="9" t="s">

--- a/TEST.xlsx
+++ b/TEST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\QF-PRO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D3DDA5-9DD2-4628-8A1A-51467BB59F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F323EAD9-7F6E-487C-8378-C9D9B298CCB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2462" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2497" uniqueCount="487">
   <si>
     <t>FORMA</t>
   </si>
@@ -1473,6 +1473,30 @@
   </si>
   <si>
     <t>RELAJANTE MUSCULAR CENTRAL</t>
+  </si>
+  <si>
+    <t>LAGRIMAS ARTIFICIALES</t>
+  </si>
+  <si>
+    <t>DUTASTERIDA/TAMSULOSINA</t>
+  </si>
+  <si>
+    <t>dut_tam</t>
+  </si>
+  <si>
+    <t>0,5/0,4</t>
+  </si>
+  <si>
+    <t>lag_art</t>
+  </si>
+  <si>
+    <t>OTORRINO Y OFTALMOLOGICOS</t>
+  </si>
+  <si>
+    <t>OFTALMOLOGICOS</t>
+  </si>
+  <si>
+    <t>GOTA OFTALMICA</t>
   </si>
 </sst>
 </file>
@@ -1609,18 +1633,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1636,6 +1648,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1974,11 +1998,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF122"/>
+  <dimension ref="A1:AF124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1996,46 +2020,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="9" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="10" t="s">
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="11" t="s">
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11"/>
-      <c r="AD1" s="11"/>
-      <c r="AE1" s="11"/>
-      <c r="AF1" s="11"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
     </row>
     <row r="2" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -2135,38 +2159,38 @@
         <v>243</v>
       </c>
     </row>
-    <row r="3" spans="1:32" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="17" t="s">
         <v>458</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="H3" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="14" t="s">
+      <c r="H3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="10" t="s">
         <v>13</v>
       </c>
       <c r="L3" s="5" t="s">
@@ -2194,49 +2218,49 @@
       <c r="V3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="W3" s="14"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="17"/>
-      <c r="AA3" s="14"/>
-      <c r="AB3" s="17"/>
-      <c r="AC3" s="14"/>
-      <c r="AD3" s="14"/>
-      <c r="AE3" s="14"/>
-      <c r="AF3" s="14"/>
-    </row>
-    <row r="4" spans="1:32" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+      <c r="W3" s="10"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+    </row>
+    <row r="4" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="17" t="s">
         <v>458</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="H4" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="14" t="s">
+      <c r="H4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="10" t="s">
         <v>13</v>
       </c>
       <c r="L4" s="5" t="s">
@@ -2265,38 +2289,38 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:32" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="17" t="s">
         <v>458</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="H5" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="14" t="s">
+      <c r="H5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="10" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="5" t="s">
@@ -2325,38 +2349,38 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:32" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+    <row r="6" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
         <v>475</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="18" t="s">
         <v>462</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="10" t="s">
         <v>107</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="14" t="s">
         <v>472</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="16" t="s">
         <v>478</v>
       </c>
-      <c r="H6" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="14" t="s">
+      <c r="H6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="10" t="s">
         <v>13</v>
       </c>
       <c r="L6" s="5" t="s">
@@ -2385,35 +2409,35 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:32" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
+    <row r="7" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
         <v>477</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="18" t="s">
         <v>463</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="14" t="s">
         <v>470</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="14" t="s">
         <v>471</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="H7" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="14" t="s">
+      <c r="H7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="10" t="s">
         <v>13</v>
       </c>
       <c r="L7" s="5" t="s">
@@ -2442,35 +2466,35 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:32" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
         <v>474</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="18" t="s">
         <v>464</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="14" t="s">
         <v>471</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="H8" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="14" t="s">
+      <c r="H8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="10" t="s">
         <v>13</v>
       </c>
       <c r="L8" s="5" t="s">
@@ -2499,35 +2523,35 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:32" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
-        <v>473</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>464</v>
-      </c>
-      <c r="D9" s="14" t="s">
+    <row r="9" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>479</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>467</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>471</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>468</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" s="14" t="s">
+      <c r="E9" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>485</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="10" t="s">
         <v>13</v>
       </c>
       <c r="L9" s="5" t="s">
@@ -2556,38 +2580,38 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:32" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
-        <v>476</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>465</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>466</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>107</v>
+    <row r="10" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>480</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>181</v>
+        <v>324</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>79</v>
+        <v>325</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="10" t="s">
         <v>13</v>
       </c>
       <c r="L10" s="5" t="s">
@@ -2616,181 +2640,144 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>464</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="V11" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>465</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="V12" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B13" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="O11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="R11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="S11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="U11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="V11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="W11" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="X11" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="Y11" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="Z11" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="AA11" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="AB11" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="O12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="R12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="S12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="U12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="V12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="W12" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="X12" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="Y12" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="Z12" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="AA12" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="AB12" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" s="5" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>122</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>72</v>
+        <v>185</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>194</v>
+        <v>388</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>175</v>
+        <v>413</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>12</v>
@@ -2802,9 +2789,9 @@
         <v>13</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="10" t="s">
         <v>12</v>
       </c>
       <c r="M13" s="5" t="s">
@@ -2817,57 +2804,57 @@
         <v>12</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S13" s="5" t="s">
         <v>13</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V13" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W13" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="X13" s="12">
-        <v>0.1</v>
+        <v>397</v>
+      </c>
+      <c r="X13" s="8">
+        <v>0.05</v>
       </c>
       <c r="Y13" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="Z13" s="12">
-        <v>0.14000000000000001</v>
+        <v>399</v>
+      </c>
+      <c r="Z13" s="8">
+        <v>0.03</v>
       </c>
       <c r="AA13" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="AB13" s="12">
-        <v>0.15</v>
+        <v>415</v>
+      </c>
+      <c r="AB13" s="8">
+        <v>0.01</v>
       </c>
     </row>
     <row r="14" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>252</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>257</v>
+        <v>146</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>292</v>
+        <v>107</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>72</v>
+        <v>185</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>307</v>
+        <v>388</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>175</v>
+        <v>414</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>12</v>
@@ -2879,7 +2866,7 @@
         <v>13</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L14" s="5" t="s">
         <v>12</v>
@@ -2894,48 +2881,48 @@
         <v>12</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S14" s="5" t="s">
         <v>13</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V14" s="5" t="s">
         <v>13</v>
       </c>
       <c r="W14" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="X14" s="12">
-        <v>0.1</v>
+        <v>397</v>
+      </c>
+      <c r="X14" s="8">
+        <v>0.05</v>
       </c>
       <c r="Y14" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="Z14" s="12">
-        <v>0.14000000000000001</v>
+        <v>399</v>
+      </c>
+      <c r="Z14" s="8">
+        <v>0.03</v>
       </c>
       <c r="AA14" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="AB14" s="12">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>415</v>
+      </c>
+      <c r="AB14" s="8">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" s="5" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>72</v>
@@ -2985,43 +2972,43 @@
       <c r="W15" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="X15" s="12">
+      <c r="X15" s="8">
         <v>0.1</v>
       </c>
       <c r="Y15" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="Z15" s="12">
+      <c r="Z15" s="8">
         <v>0.14000000000000001</v>
       </c>
       <c r="AA15" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="AB15" s="12">
+      <c r="AB15" s="8">
         <v>0.15</v>
       </c>
     </row>
     <row r="16" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>253</v>
+        <v>26</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>126</v>
+        <v>257</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>173</v>
+        <v>292</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>383</v>
+        <v>307</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>384</v>
+        <v>175</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>12</v>
@@ -3033,16 +3020,13 @@
         <v>13</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L16" s="5" t="s">
         <v>12</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N16" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O16" s="5" t="s">
         <v>13</v>
@@ -3051,7 +3035,7 @@
         <v>12</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S16" s="5" t="s">
         <v>13</v>
@@ -3060,48 +3044,48 @@
         <v>13</v>
       </c>
       <c r="V16" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W16" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="X16" s="12">
-        <v>0.02</v>
+        <v>369</v>
+      </c>
+      <c r="X16" s="8">
+        <v>0.1</v>
       </c>
       <c r="Y16" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="Z16" s="12">
-        <v>0.01</v>
+        <v>340</v>
+      </c>
+      <c r="Z16" s="8">
+        <v>0.14000000000000001</v>
       </c>
       <c r="AA16" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="AB16" s="12">
-        <v>0.02</v>
+        <v>392</v>
+      </c>
+      <c r="AB16" s="8">
+        <v>0.15</v>
       </c>
     </row>
     <row r="17" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>408</v>
+        <v>121</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>253</v>
+        <v>26</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>173</v>
+        <v>162</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>383</v>
+        <v>194</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>384</v>
+        <v>175</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>12</v>
@@ -3113,16 +3097,13 @@
         <v>13</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N17" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O17" s="5" t="s">
         <v>13</v>
@@ -3131,7 +3112,7 @@
         <v>12</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S17" s="5" t="s">
         <v>13</v>
@@ -3140,48 +3121,48 @@
         <v>13</v>
       </c>
       <c r="V17" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W17" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="X17" s="12">
-        <v>0.02</v>
+        <v>369</v>
+      </c>
+      <c r="X17" s="8">
+        <v>0.1</v>
       </c>
       <c r="Y17" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="Z17" s="12">
-        <v>0.01</v>
+        <v>340</v>
+      </c>
+      <c r="Z17" s="8">
+        <v>0.14000000000000001</v>
       </c>
       <c r="AA17" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="AB17" s="12">
-        <v>0.02</v>
+        <v>392</v>
+      </c>
+      <c r="AB17" s="8">
+        <v>0.15</v>
       </c>
     </row>
     <row r="18" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>132</v>
+        <v>407</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>27</v>
+        <v>253</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>72</v>
+      <c r="E18" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>85</v>
+        <v>383</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>174</v>
+        <v>384</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>12</v>
@@ -3190,7 +3171,7 @@
         <v>12</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K18" s="5" t="s">
         <v>13</v>
@@ -3199,45 +3180,69 @@
         <v>12</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="O18" s="5" t="s">
         <v>13</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="S18" s="5" t="s">
         <v>13</v>
       </c>
       <c r="U18" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V18" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="W18" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="X18" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="Y18" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="Z18" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="AA18" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="AB18" s="8">
+        <v>0.02</v>
       </c>
     </row>
     <row r="19" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>73</v>
+        <v>408</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>28</v>
+        <v>253</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>181</v>
+      <c r="E19" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>184</v>
+        <v>383</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>201</v>
+        <v>384</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>12</v>
@@ -3255,13 +3260,19 @@
         <v>12</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="O19" s="5" t="s">
         <v>13</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="S19" s="5" t="s">
         <v>13</v>
@@ -3270,18 +3281,36 @@
         <v>13</v>
       </c>
       <c r="V19" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="W19" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="X19" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="Y19" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="Z19" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="AA19" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="AB19" s="8">
+        <v>0.02</v>
       </c>
     </row>
     <row r="20" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>107</v>
@@ -3290,10 +3319,10 @@
         <v>72</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>180</v>
+        <v>85</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>12</v>
@@ -3302,7 +3331,7 @@
         <v>12</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K20" s="5" t="s">
         <v>13</v>
@@ -3317,10 +3346,7 @@
         <v>13</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="R20" s="5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="S20" s="5" t="s">
         <v>13</v>
@@ -3334,13 +3360,13 @@
     </row>
     <row r="21" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>107</v>
@@ -3349,10 +3375,10 @@
         <v>181</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>12</v>
@@ -3364,7 +3390,7 @@
         <v>13</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="L21" s="5" t="s">
         <v>12</v>
@@ -3385,36 +3411,30 @@
         <v>13</v>
       </c>
       <c r="V21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="W21" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="X21" s="12">
-        <v>0.1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>181</v>
+        <v>72</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>79</v>
+        <v>180</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>12</v>
@@ -3426,7 +3446,7 @@
         <v>13</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="L22" s="5" t="s">
         <v>12</v>
@@ -3438,30 +3458,27 @@
         <v>13</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="R22" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="S22" s="5" t="s">
         <v>13</v>
       </c>
       <c r="U22" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V22" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="W22" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="X22" s="12">
-        <v>0.1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>409</v>
+        <v>75</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>295</v>
+        <v>30</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>125</v>
@@ -3470,13 +3487,13 @@
         <v>107</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>72</v>
+        <v>181</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>303</v>
+        <v>79</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>331</v>
+        <v>182</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>12</v>
@@ -3488,7 +3505,7 @@
         <v>13</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="L23" s="5" t="s">
         <v>12</v>
@@ -3500,48 +3517,33 @@
         <v>13</v>
       </c>
       <c r="Q23" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="R23" s="5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="S23" s="5" t="s">
         <v>13</v>
       </c>
       <c r="U23" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V23" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W23" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="X23" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="Y23" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="Z23" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="AA23" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="AB23" s="12">
+        <v>250</v>
+      </c>
+      <c r="X23" s="8">
         <v>0.1</v>
       </c>
     </row>
     <row r="24" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>107</v>
@@ -3553,7 +3555,7 @@
         <v>79</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>12</v>
@@ -3586,30 +3588,36 @@
         <v>13</v>
       </c>
       <c r="V24" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="W24" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="X24" s="8">
+        <v>0.1</v>
       </c>
     </row>
     <row r="25" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>77</v>
+        <v>409</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>31</v>
+        <v>295</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>181</v>
+        <v>72</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>79</v>
+        <v>303</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>183</v>
+        <v>331</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>12</v>
@@ -3633,39 +3641,60 @@
         <v>13</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="R25" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="S25" s="5" t="s">
         <v>13</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V25" s="5" t="s">
         <v>13</v>
+      </c>
+      <c r="W25" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="X25" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="Y25" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="Z25" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="AA25" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="AB25" s="8">
+        <v>0.1</v>
       </c>
     </row>
     <row r="26" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E26" s="13" t="s">
-        <v>173</v>
+      <c r="E26" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>172</v>
+        <v>79</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>12</v>
@@ -3689,10 +3718,7 @@
         <v>13</v>
       </c>
       <c r="Q26" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="R26" s="5" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="S26" s="5" t="s">
         <v>13</v>
@@ -3701,30 +3727,30 @@
         <v>13</v>
       </c>
       <c r="V26" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E27" s="13" t="s">
-        <v>173</v>
+      <c r="E27" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>172</v>
+        <v>79</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>12</v>
@@ -3736,7 +3762,7 @@
         <v>13</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="L27" s="5" t="s">
         <v>12</v>
@@ -3748,10 +3774,7 @@
         <v>13</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="R27" s="5" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="S27" s="5" t="s">
         <v>13</v>
@@ -3760,23 +3783,23 @@
         <v>13</v>
       </c>
       <c r="V27" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="9" t="s">
         <v>173</v>
       </c>
       <c r="F28" s="5" t="s">
@@ -3786,7 +3809,7 @@
         <v>177</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>12</v>
@@ -3795,7 +3818,7 @@
         <v>13</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="L28" s="5" t="s">
         <v>12</v>
@@ -3824,28 +3847,28 @@
     </row>
     <row r="29" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>181</v>
+      <c r="E29" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>12</v>
@@ -3854,7 +3877,7 @@
         <v>13</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="L29" s="5" t="s">
         <v>12</v>
@@ -3866,7 +3889,10 @@
         <v>13</v>
       </c>
       <c r="Q29" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="R29" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="S29" s="5" t="s">
         <v>13</v>
@@ -3880,25 +3906,25 @@
     </row>
     <row r="30" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>181</v>
+      <c r="E30" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>13</v>
@@ -3922,7 +3948,10 @@
         <v>13</v>
       </c>
       <c r="Q30" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="R30" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="S30" s="5" t="s">
         <v>13</v>
@@ -3936,28 +3965,28 @@
     </row>
     <row r="31" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>416</v>
+        <v>111</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>254</v>
+        <v>60</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>256</v>
+        <v>149</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>293</v>
+        <v>107</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>300</v>
+        <v>181</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>322</v>
+        <v>79</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>385</v>
+        <v>183</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>12</v>
@@ -3978,10 +4007,7 @@
         <v>13</v>
       </c>
       <c r="Q31" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="R31" s="5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="S31" s="5" t="s">
         <v>13</v>
@@ -3991,44 +4017,32 @@
       </c>
       <c r="V31" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="W31" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="X31" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="Y31" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="Z31" s="12">
-        <v>0.05</v>
       </c>
     </row>
     <row r="32" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>417</v>
+        <v>110</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>255</v>
+        <v>60</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>260</v>
+        <v>123</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>293</v>
+        <v>107</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>300</v>
+        <v>181</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>418</v>
+        <v>79</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>317</v>
+        <v>183</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>12</v>
@@ -4049,10 +4063,7 @@
         <v>13</v>
       </c>
       <c r="Q32" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="R32" s="5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="S32" s="5" t="s">
         <v>13</v>
@@ -4066,25 +4077,25 @@
     </row>
     <row r="33" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>78</v>
+        <v>416</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>33</v>
+        <v>254</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>124</v>
+        <v>256</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>107</v>
+        <v>293</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>181</v>
+        <v>300</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>79</v>
+        <v>322</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>179</v>
+        <v>385</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>12</v>
@@ -4111,7 +4122,7 @@
         <v>12</v>
       </c>
       <c r="R33" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="S33" s="5" t="s">
         <v>13</v>
@@ -4121,29 +4132,41 @@
       </c>
       <c r="V33" s="5" t="s">
         <v>12</v>
+      </c>
+      <c r="W33" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="X33" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="Y33" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="Z33" s="8">
+        <v>0.05</v>
       </c>
     </row>
     <row r="34" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>80</v>
+        <v>417</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>34</v>
+        <v>255</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>122</v>
+        <v>260</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>107</v>
+        <v>293</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>72</v>
+        <v>300</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>194</v>
+        <v>418</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>204</v>
+        <v>317</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>12</v>
@@ -4155,7 +4178,7 @@
         <v>13</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L34" s="5" t="s">
         <v>12</v>
@@ -4170,39 +4193,39 @@
         <v>12</v>
       </c>
       <c r="R34" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="S34" s="5" t="s">
         <v>13</v>
       </c>
       <c r="U34" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V34" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>72</v>
+        <v>181</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>12</v>
@@ -4214,7 +4237,7 @@
         <v>13</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L35" s="5" t="s">
         <v>12</v>
@@ -4238,30 +4261,30 @@
         <v>13</v>
       </c>
       <c r="V35" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>181</v>
+        <v>72</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>79</v>
+        <v>194</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>12</v>
@@ -4273,7 +4296,7 @@
         <v>13</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="L36" s="5" t="s">
         <v>12</v>
@@ -4285,39 +4308,42 @@
         <v>13</v>
       </c>
       <c r="Q36" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="R36" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="S36" s="5" t="s">
         <v>13</v>
       </c>
       <c r="U36" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V36" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>107</v>
+        <v>162</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>181</v>
+        <v>72</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>79</v>
+        <v>194</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>12</v>
@@ -4329,7 +4355,7 @@
         <v>13</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="L37" s="5" t="s">
         <v>12</v>
@@ -4341,7 +4367,10 @@
         <v>13</v>
       </c>
       <c r="Q37" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="R37" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="S37" s="5" t="s">
         <v>13</v>
@@ -4350,18 +4379,18 @@
         <v>13</v>
       </c>
       <c r="V37" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>107</v>
@@ -4411,25 +4440,25 @@
     </row>
     <row r="39" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>410</v>
+        <v>82</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>258</v>
+        <v>35</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>386</v>
+        <v>79</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>387</v>
+        <v>183</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>12</v>
@@ -4441,7 +4470,7 @@
         <v>13</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="L39" s="5" t="s">
         <v>12</v>
@@ -4449,70 +4478,43 @@
       <c r="M39" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N39" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="O39" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="P39" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q39" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="R39" s="5" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="S39" s="5" t="s">
         <v>13</v>
       </c>
       <c r="U39" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V39" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="W39" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="X39" s="12">
-        <v>0.08</v>
-      </c>
-      <c r="Y39" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="Z39" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="AA39" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="AB39" s="12">
-        <v>0.02</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>72</v>
+        <v>181</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="H40" s="5" t="s">
         <v>12</v>
@@ -4521,10 +4523,10 @@
         <v>12</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="L40" s="5" t="s">
         <v>12</v>
@@ -4536,42 +4538,39 @@
         <v>13</v>
       </c>
       <c r="Q40" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="R40" s="5" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="S40" s="5" t="s">
         <v>13</v>
       </c>
       <c r="U40" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V40" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>83</v>
+        <v>410</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>36</v>
+        <v>258</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>72</v>
+        <v>198</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>85</v>
+        <v>386</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>174</v>
+        <v>387</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>12</v>
@@ -4580,10 +4579,10 @@
         <v>12</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L41" s="5" t="s">
         <v>12</v>
@@ -4591,8 +4590,14 @@
       <c r="M41" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="N41" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="O41" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="P41" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="Q41" s="5" t="s">
         <v>12</v>
@@ -4609,28 +4614,46 @@
       <c r="V41" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="W41" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="X41" s="8">
+        <v>0.08</v>
+      </c>
+      <c r="Y41" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="Z41" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="AA41" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="AB41" s="8">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="42" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>421</v>
+        <v>136</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>259</v>
+        <v>36</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>185</v>
+        <v>72</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>388</v>
+        <v>85</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>389</v>
+        <v>174</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>12</v>
@@ -4639,7 +4662,7 @@
         <v>12</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K42" s="5" t="s">
         <v>13</v>
@@ -4657,57 +4680,39 @@
         <v>12</v>
       </c>
       <c r="R42" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="S42" s="5" t="s">
         <v>13</v>
       </c>
       <c r="U42" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V42" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="W42" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="X42" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="Y42" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="Z42" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="AA42" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="AB42" s="12">
-        <v>0.05</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>411</v>
+        <v>83</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>298</v>
+        <v>36</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>299</v>
+        <v>130</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>300</v>
+        <v>72</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>336</v>
+        <v>85</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>337</v>
+        <v>174</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>12</v>
@@ -4716,7 +4721,7 @@
         <v>12</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K43" s="5" t="s">
         <v>13</v>
@@ -4734,7 +4739,7 @@
         <v>12</v>
       </c>
       <c r="R43" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="S43" s="5" t="s">
         <v>13</v>
@@ -4744,35 +4749,17 @@
       </c>
       <c r="V43" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="W43" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="X43" s="12">
-        <v>0.4</v>
-      </c>
-      <c r="Y43" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="Z43" s="12">
-        <v>0.15</v>
-      </c>
-      <c r="AA43" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="AB43" s="5" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="44" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>114</v>
+        <v>421</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>61</v>
+        <v>259</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>107</v>
@@ -4781,13 +4768,13 @@
         <v>185</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>186</v>
+        <v>388</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>207</v>
+        <v>389</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I44" s="5" t="s">
         <v>12</v>
@@ -4808,7 +4795,10 @@
         <v>13</v>
       </c>
       <c r="Q44" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="R44" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="S44" s="5" t="s">
         <v>13</v>
@@ -4817,30 +4807,48 @@
         <v>13</v>
       </c>
       <c r="V44" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="W44" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="X44" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="Y44" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="Z44" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="AA44" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="AB44" s="8">
+        <v>0.05</v>
       </c>
     </row>
     <row r="45" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>137</v>
+        <v>411</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>37</v>
+        <v>298</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>123</v>
+        <v>299</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E45" s="13" t="s">
-        <v>173</v>
+      <c r="E45" s="5" t="s">
+        <v>300</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>187</v>
+        <v>336</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>208</v>
+        <v>337</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>12</v>
@@ -4864,39 +4872,60 @@
         <v>13</v>
       </c>
       <c r="Q45" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="R45" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="S45" s="5" t="s">
         <v>13</v>
       </c>
       <c r="U45" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V45" s="5" t="s">
         <v>13</v>
+      </c>
+      <c r="W45" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="X45" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="Y45" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="Z45" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="AA45" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="AB45" s="5" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="46" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E46" s="13" t="s">
-        <v>173</v>
+      <c r="E46" s="5" t="s">
+        <v>185</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H46" s="5" t="s">
         <v>13</v>
@@ -4934,10 +4963,10 @@
     </row>
     <row r="47" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>412</v>
+        <v>137</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>261</v>
+        <v>37</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>123</v>
@@ -4945,14 +4974,14 @@
       <c r="D47" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E47" s="5" t="s">
-        <v>300</v>
+      <c r="E47" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>308</v>
+        <v>187</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>390</v>
+        <v>208</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>12</v>
@@ -4964,25 +4993,19 @@
         <v>13</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>456</v>
+        <v>13</v>
       </c>
       <c r="L47" s="5" t="s">
         <v>12</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N47" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="O47" s="5" t="s">
         <v>13</v>
       </c>
       <c r="Q47" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="R47" s="5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="S47" s="5" t="s">
         <v>13</v>
@@ -4992,26 +5015,14 @@
       </c>
       <c r="V47" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="W47" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="X47" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="Y47" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="Z47" s="12">
-        <v>0.03</v>
       </c>
     </row>
     <row r="48" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>125</v>
@@ -5019,23 +5030,23 @@
       <c r="D48" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E48" s="5" t="s">
-        <v>72</v>
+      <c r="E48" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>85</v>
+        <v>187</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I48" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K48" s="5" t="s">
         <v>13</v>
@@ -5050,16 +5061,13 @@
         <v>13</v>
       </c>
       <c r="Q48" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="R48" s="5" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="S48" s="5" t="s">
         <v>13</v>
       </c>
       <c r="U48" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V48" s="5" t="s">
         <v>13</v>
@@ -5067,25 +5075,25 @@
     </row>
     <row r="49" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>116</v>
+        <v>412</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>39</v>
+        <v>261</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>181</v>
+        <v>300</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>189</v>
+        <v>308</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>209</v>
+        <v>390</v>
       </c>
       <c r="H49" s="5" t="s">
         <v>12</v>
@@ -5097,7 +5105,7 @@
         <v>13</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>13</v>
+        <v>456</v>
       </c>
       <c r="L49" s="5" t="s">
         <v>12</v>
@@ -5106,7 +5114,7 @@
         <v>12</v>
       </c>
       <c r="N49" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O49" s="5" t="s">
         <v>13</v>
@@ -5115,24 +5123,36 @@
         <v>12</v>
       </c>
       <c r="R49" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S49" s="5" t="s">
         <v>13</v>
       </c>
       <c r="U49" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V49" s="5" t="s">
         <v>13</v>
+      </c>
+      <c r="W49" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="X49" s="8">
+        <v>0.04</v>
+      </c>
+      <c r="Y49" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="Z49" s="8">
+        <v>0.03</v>
       </c>
     </row>
     <row r="50" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>419</v>
+        <v>84</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>297</v>
+        <v>38</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>125</v>
@@ -5141,13 +5161,13 @@
         <v>107</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>311</v>
+        <v>72</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>334</v>
+        <v>85</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>335</v>
+        <v>174</v>
       </c>
       <c r="H50" s="5" t="s">
         <v>12</v>
@@ -5156,7 +5176,7 @@
         <v>12</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K50" s="5" t="s">
         <v>13</v>
@@ -5165,10 +5185,7 @@
         <v>12</v>
       </c>
       <c r="M50" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N50" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="O50" s="5" t="s">
         <v>13</v>
@@ -5177,7 +5194,7 @@
         <v>12</v>
       </c>
       <c r="R50" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="S50" s="5" t="s">
         <v>13</v>
@@ -5187,50 +5204,32 @@
       </c>
       <c r="V50" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="W50" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="X50" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="Y50" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="Z50" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="AA50" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="AB50" s="5" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="51" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>72</v>
+        <v>181</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I51" s="5" t="s">
         <v>12</v>
@@ -5245,19 +5244,25 @@
         <v>12</v>
       </c>
       <c r="M51" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="N51" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="O51" s="5" t="s">
         <v>13</v>
       </c>
       <c r="Q51" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="R51" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="S51" s="5" t="s">
         <v>13</v>
       </c>
       <c r="U51" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V51" s="5" t="s">
         <v>13</v>
@@ -5265,25 +5270,25 @@
     </row>
     <row r="52" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>263</v>
+        <v>125</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>72</v>
+        <v>311</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>180</v>
+        <v>334</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>191</v>
+        <v>335</v>
       </c>
       <c r="H52" s="5" t="s">
         <v>12</v>
@@ -5307,10 +5312,7 @@
         <v>19</v>
       </c>
       <c r="O52" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="P52" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q52" s="5" t="s">
         <v>12</v>
@@ -5325,33 +5327,33 @@
         <v>12</v>
       </c>
       <c r="V52" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W52" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="X52" s="12">
-        <v>0.2</v>
+        <v>371</v>
+      </c>
+      <c r="X52" s="8">
+        <v>0.05</v>
       </c>
       <c r="Y52" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="Z52" s="12">
-        <v>0.09</v>
+        <v>347</v>
+      </c>
+      <c r="Z52" s="8">
+        <v>0.03</v>
       </c>
       <c r="AA52" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="AB52" s="12">
-        <v>0.06</v>
+        <v>381</v>
+      </c>
+      <c r="AB52" s="5" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="53" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>125</v>
@@ -5359,17 +5361,17 @@
       <c r="D53" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E53" s="13" t="s">
-        <v>173</v>
+      <c r="E53" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I53" s="5" t="s">
         <v>12</v>
@@ -5404,25 +5406,25 @@
     </row>
     <row r="54" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>87</v>
+        <v>420</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>41</v>
+        <v>262</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>125</v>
+        <v>263</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>181</v>
+        <v>72</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>79</v>
+        <v>180</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>12</v>
@@ -5434,39 +5436,63 @@
         <v>13</v>
       </c>
       <c r="K54" s="5" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="L54" s="5" t="s">
         <v>12</v>
       </c>
       <c r="M54" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="N54" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="O54" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="P54" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="Q54" s="5" t="s">
         <v>12</v>
       </c>
       <c r="R54" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S54" s="5" t="s">
         <v>13</v>
       </c>
       <c r="U54" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V54" s="5" t="s">
         <v>12</v>
+      </c>
+      <c r="W54" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="X54" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="Y54" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="Z54" s="8">
+        <v>0.09</v>
+      </c>
+      <c r="AA54" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="AB54" s="8">
+        <v>0.06</v>
       </c>
     </row>
     <row r="55" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>125</v>
@@ -5474,14 +5500,14 @@
       <c r="D55" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E55" s="5" t="s">
-        <v>72</v>
+      <c r="E55" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>12</v>
@@ -5519,25 +5545,25 @@
     </row>
     <row r="56" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>72</v>
+        <v>181</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>180</v>
+        <v>79</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="H56" s="5" t="s">
         <v>12</v>
@@ -5549,7 +5575,7 @@
         <v>13</v>
       </c>
       <c r="K56" s="5" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="L56" s="5" t="s">
         <v>12</v>
@@ -5561,7 +5587,10 @@
         <v>13</v>
       </c>
       <c r="Q56" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="R56" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="S56" s="5" t="s">
         <v>13</v>
@@ -5570,30 +5599,30 @@
         <v>13</v>
       </c>
       <c r="V56" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>192</v>
+        <v>72</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="H57" s="5" t="s">
         <v>12</v>
@@ -5605,25 +5634,19 @@
         <v>13</v>
       </c>
       <c r="K57" s="5" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="L57" s="5" t="s">
         <v>12</v>
       </c>
       <c r="M57" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N57" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="O57" s="5" t="s">
         <v>13</v>
       </c>
       <c r="Q57" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="R57" s="5" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="S57" s="5" t="s">
         <v>13</v>
@@ -5632,30 +5655,30 @@
         <v>13</v>
       </c>
       <c r="V57" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>422</v>
+        <v>89</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>294</v>
+        <v>42</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>311</v>
+        <v>72</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>312</v>
+        <v>180</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>330</v>
+        <v>191</v>
       </c>
       <c r="H58" s="5" t="s">
         <v>12</v>
@@ -5673,19 +5696,13 @@
         <v>12</v>
       </c>
       <c r="M58" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N58" s="5" t="s">
-        <v>402</v>
+        <v>13</v>
       </c>
       <c r="O58" s="5" t="s">
         <v>13</v>
       </c>
       <c r="Q58" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="R58" s="5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="S58" s="5" t="s">
         <v>13</v>
@@ -5695,41 +5712,29 @@
       </c>
       <c r="V58" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="W58" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="X58" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="Y58" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="Z58" s="12">
-        <v>0.02</v>
       </c>
     </row>
     <row r="59" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>423</v>
+        <v>90</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>264</v>
+        <v>43</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>72</v>
+        <v>192</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>307</v>
+        <v>193</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>391</v>
+        <v>211</v>
       </c>
       <c r="H59" s="5" t="s">
         <v>12</v>
@@ -5741,13 +5746,16 @@
         <v>13</v>
       </c>
       <c r="K59" s="5" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="L59" s="5" t="s">
         <v>12</v>
       </c>
       <c r="M59" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="N59" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="O59" s="5" t="s">
         <v>13</v>
@@ -5762,51 +5770,33 @@
         <v>13</v>
       </c>
       <c r="U59" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V59" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="W59" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="X59" s="12">
-        <v>0.15</v>
-      </c>
-      <c r="Y59" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="Z59" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="AA59" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="AB59" s="12">
-        <v>0.02</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>221</v>
+        <v>422</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>44</v>
+        <v>294</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>72</v>
+        <v>311</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>180</v>
+        <v>312</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>191</v>
+        <v>330</v>
       </c>
       <c r="H60" s="5" t="s">
         <v>12</v>
@@ -5824,7 +5814,10 @@
         <v>12</v>
       </c>
       <c r="M60" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="N60" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="O60" s="5" t="s">
         <v>13</v>
@@ -5833,7 +5826,7 @@
         <v>12</v>
       </c>
       <c r="R60" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S60" s="5" t="s">
         <v>13</v>
@@ -5842,33 +5835,45 @@
         <v>13</v>
       </c>
       <c r="V60" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="W60" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="X60" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="Y60" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="Z60" s="8">
+        <v>0.02</v>
       </c>
     </row>
     <row r="61" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>222</v>
+        <v>423</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>44</v>
+        <v>264</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>72</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>180</v>
+        <v>307</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>191</v>
+        <v>391</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I61" s="5" t="s">
         <v>12</v>
@@ -5889,39 +5894,60 @@
         <v>13</v>
       </c>
       <c r="Q61" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="R61" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="S61" s="5" t="s">
         <v>13</v>
       </c>
       <c r="U61" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V61" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="W61" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="X61" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="Y61" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="Z61" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AA61" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="AB61" s="8">
+        <v>0.02</v>
       </c>
     </row>
     <row r="62" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>424</v>
+        <v>221</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>265</v>
+        <v>44</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>293</v>
+        <v>107</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>300</v>
+        <v>72</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>301</v>
+        <v>180</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>302</v>
+        <v>191</v>
       </c>
       <c r="H62" s="5" t="s">
         <v>12</v>
@@ -5933,7 +5959,7 @@
         <v>13</v>
       </c>
       <c r="K62" s="5" t="s">
-        <v>456</v>
+        <v>13</v>
       </c>
       <c r="L62" s="5" t="s">
         <v>12</v>
@@ -5959,49 +5985,31 @@
       <c r="V62" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="W62" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="X62" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="Y62" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="Z62" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="AA62" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="AB62" s="12">
-        <v>0.02</v>
-      </c>
     </row>
     <row r="63" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>425</v>
+        <v>222</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>265</v>
+        <v>44</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>266</v>
+        <v>127</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>293</v>
+        <v>108</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>300</v>
+        <v>72</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>301</v>
+        <v>180</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>302</v>
+        <v>191</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I63" s="5" t="s">
         <v>12</v>
@@ -6010,7 +6018,7 @@
         <v>13</v>
       </c>
       <c r="K63" s="5" t="s">
-        <v>456</v>
+        <v>13</v>
       </c>
       <c r="L63" s="5" t="s">
         <v>12</v>
@@ -6022,10 +6030,7 @@
         <v>13</v>
       </c>
       <c r="Q63" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="R63" s="5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="S63" s="5" t="s">
         <v>13</v>
@@ -6035,47 +6040,29 @@
       </c>
       <c r="V63" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="W63" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="X63" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="Y63" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="Z63" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="AA63" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="AB63" s="12">
-        <v>0.02</v>
       </c>
     </row>
     <row r="64" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>91</v>
+        <v>424</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>45</v>
+        <v>265</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>107</v>
+        <v>293</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>192</v>
+        <v>300</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>193</v>
+        <v>301</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>213</v>
+        <v>302</v>
       </c>
       <c r="H64" s="5" t="s">
         <v>12</v>
@@ -6087,7 +6074,7 @@
         <v>13</v>
       </c>
       <c r="K64" s="5" t="s">
-        <v>4</v>
+        <v>456</v>
       </c>
       <c r="L64" s="5" t="s">
         <v>12</v>
@@ -6099,7 +6086,10 @@
         <v>13</v>
       </c>
       <c r="Q64" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="R64" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="S64" s="5" t="s">
         <v>13</v>
@@ -6108,57 +6098,75 @@
         <v>13</v>
       </c>
       <c r="V64" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="W64" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="X64" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="Y64" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="Z64" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="AA64" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="AB64" s="8">
+        <v>0.02</v>
       </c>
     </row>
     <row r="65" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
-        <v>138</v>
+        <v>425</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>63</v>
+        <v>265</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>165</v>
+        <v>266</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>107</v>
+        <v>293</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>72</v>
+        <v>300</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>194</v>
+        <v>301</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>203</v>
+        <v>302</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I65" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K65" s="5" t="s">
-        <v>13</v>
+        <v>456</v>
       </c>
       <c r="L65" s="5" t="s">
         <v>12</v>
       </c>
       <c r="M65" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N65" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O65" s="5" t="s">
         <v>13</v>
       </c>
       <c r="Q65" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="R65" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="S65" s="5" t="s">
         <v>13</v>
@@ -6167,33 +6175,51 @@
         <v>13</v>
       </c>
       <c r="V65" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="W65" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="X65" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="Y65" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="Z65" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="AA65" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="AB65" s="8">
+        <v>0.02</v>
       </c>
     </row>
     <row r="66" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
-        <v>139</v>
+        <v>91</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E66" s="13" t="s">
-        <v>173</v>
+        <v>107</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>192</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>176</v>
+        <v>213</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I66" s="5" t="s">
         <v>12</v>
@@ -6202,7 +6228,7 @@
         <v>13</v>
       </c>
       <c r="K66" s="5" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="L66" s="5" t="s">
         <v>12</v>
@@ -6228,34 +6254,34 @@
     </row>
     <row r="67" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E67" s="13" t="s">
-        <v>173</v>
+      <c r="E67" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I67" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K67" s="5" t="s">
         <v>13</v>
@@ -6264,7 +6290,10 @@
         <v>12</v>
       </c>
       <c r="M67" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="N67" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="O67" s="5" t="s">
         <v>13</v>
@@ -6284,28 +6313,28 @@
     </row>
     <row r="68" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
-        <v>92</v>
+        <v>139</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E68" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E68" s="9" t="s">
         <v>173</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>214</v>
+        <v>176</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I68" s="5" t="s">
         <v>12</v>
@@ -6314,7 +6343,7 @@
         <v>13</v>
       </c>
       <c r="K68" s="5" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="L68" s="5" t="s">
         <v>12</v>
@@ -6335,36 +6364,30 @@
         <v>13</v>
       </c>
       <c r="V68" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="W68" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="X68" s="12">
-        <v>0.05</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
-        <v>426</v>
+        <v>140</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>267</v>
+        <v>46</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E69" s="5" t="s">
-        <v>72</v>
+      <c r="E69" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>303</v>
+        <v>172</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>304</v>
+        <v>176</v>
       </c>
       <c r="H69" s="5" t="s">
         <v>12</v>
@@ -6388,45 +6411,24 @@
         <v>13</v>
       </c>
       <c r="Q69" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="R69" s="5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="S69" s="5" t="s">
         <v>13</v>
       </c>
       <c r="U69" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V69" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="W69" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="X69" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="Y69" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="Z69" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="AA69" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="AB69" s="5" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="70" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
-        <v>427</v>
+        <v>92</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>267</v>
+        <v>47</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>123</v>
@@ -6434,14 +6436,14 @@
       <c r="D70" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E70" s="5" t="s">
-        <v>72</v>
+      <c r="E70" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>303</v>
+        <v>187</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>304</v>
+        <v>214</v>
       </c>
       <c r="H70" s="5" t="s">
         <v>12</v>
@@ -6453,7 +6455,7 @@
         <v>13</v>
       </c>
       <c r="K70" s="5" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="L70" s="5" t="s">
         <v>12</v>
@@ -6465,60 +6467,45 @@
         <v>13</v>
       </c>
       <c r="Q70" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="R70" s="5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="S70" s="5" t="s">
         <v>13</v>
       </c>
       <c r="U70" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V70" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W70" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="X70" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="Y70" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="Z70" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="AA70" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="AB70" s="5" t="s">
-        <v>358</v>
+        <v>249</v>
+      </c>
+      <c r="X70" s="8">
+        <v>0.05</v>
       </c>
     </row>
     <row r="71" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>181</v>
+        <v>72</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>79</v>
+        <v>303</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H71" s="5" t="s">
         <v>12</v>
@@ -6536,10 +6523,7 @@
         <v>12</v>
       </c>
       <c r="M71" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N71" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="O71" s="5" t="s">
         <v>13</v>
@@ -6548,31 +6532,31 @@
         <v>12</v>
       </c>
       <c r="R71" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S71" s="5" t="s">
         <v>13</v>
       </c>
       <c r="U71" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V71" s="5" t="s">
         <v>13</v>
       </c>
       <c r="W71" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="X71" s="12">
+        <v>341</v>
+      </c>
+      <c r="X71" s="8">
         <v>0.1</v>
       </c>
       <c r="Y71" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="Z71" s="12">
-        <v>0.05</v>
+        <v>342</v>
+      </c>
+      <c r="Z71" s="8">
+        <v>0.1</v>
       </c>
       <c r="AA71" s="5" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="AB71" s="5" t="s">
         <v>358</v>
@@ -6580,25 +6564,25 @@
     </row>
     <row r="72" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
-        <v>93</v>
+        <v>427</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>48</v>
+        <v>267</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>192</v>
+        <v>72</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>193</v>
+        <v>303</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>212</v>
+        <v>304</v>
       </c>
       <c r="H72" s="5" t="s">
         <v>12</v>
@@ -6610,7 +6594,7 @@
         <v>13</v>
       </c>
       <c r="K72" s="5" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="L72" s="5" t="s">
         <v>12</v>
@@ -6625,24 +6609,42 @@
         <v>12</v>
       </c>
       <c r="R72" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S72" s="5" t="s">
         <v>13</v>
       </c>
       <c r="U72" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V72" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="W72" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="X72" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="Y72" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="Z72" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="AA72" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="AB72" s="5" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="73" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
-        <v>143</v>
+        <v>428</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>145</v>
+        <v>268</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>153</v>
@@ -6651,13 +6653,13 @@
         <v>107</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>212</v>
+        <v>305</v>
       </c>
       <c r="H73" s="5" t="s">
         <v>12</v>
@@ -6675,13 +6677,19 @@
         <v>12</v>
       </c>
       <c r="M73" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="N73" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="O73" s="5" t="s">
         <v>13</v>
       </c>
       <c r="Q73" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="R73" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="S73" s="5" t="s">
         <v>13</v>
@@ -6691,29 +6699,47 @@
       </c>
       <c r="V73" s="5" t="s">
         <v>13</v>
+      </c>
+      <c r="W73" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="X73" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="Y73" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="Z73" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AA73" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="AB73" s="5" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="74" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
-        <v>144</v>
+        <v>93</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>164</v>
+        <v>48</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="E74" s="13" t="s">
-        <v>173</v>
+        <v>107</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>192</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="H74" s="5" t="s">
         <v>12</v>
@@ -6725,7 +6751,7 @@
         <v>13</v>
       </c>
       <c r="K74" s="5" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="L74" s="5" t="s">
         <v>12</v>
@@ -6737,7 +6763,10 @@
         <v>13</v>
       </c>
       <c r="Q74" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="R74" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="S74" s="5" t="s">
         <v>13</v>
@@ -6746,30 +6775,30 @@
         <v>13</v>
       </c>
       <c r="V74" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
-        <v>223</v>
+        <v>143</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="E75" s="13" t="s">
-        <v>173</v>
+        <v>107</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>192</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="H75" s="5" t="s">
         <v>12</v>
@@ -6781,7 +6810,7 @@
         <v>13</v>
       </c>
       <c r="K75" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L75" s="5" t="s">
         <v>12</v>
@@ -6807,25 +6836,25 @@
     </row>
     <row r="76" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
-        <v>429</v>
+        <v>144</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>269</v>
+        <v>164</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>181</v>
+        <v>220</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>306</v>
+        <v>188</v>
       </c>
       <c r="H76" s="5" t="s">
         <v>12</v>
@@ -6837,7 +6866,7 @@
         <v>13</v>
       </c>
       <c r="K76" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L76" s="5" t="s">
         <v>12</v>
@@ -6849,10 +6878,7 @@
         <v>13</v>
       </c>
       <c r="Q76" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="R76" s="5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="S76" s="5" t="s">
         <v>13</v>
@@ -6861,48 +6887,30 @@
         <v>13</v>
       </c>
       <c r="V76" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="W76" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="X76" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="Y76" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="Z76" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="AA76" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="AB76" s="12">
-        <v>0.02</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
-        <v>94</v>
+        <v>223</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>49</v>
+        <v>163</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D77" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>72</v>
+        <v>157</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="H77" s="5" t="s">
         <v>12</v>
@@ -6914,7 +6922,7 @@
         <v>13</v>
       </c>
       <c r="K77" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L77" s="5" t="s">
         <v>12</v>
@@ -6940,25 +6948,25 @@
     </row>
     <row r="78" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
-        <v>95</v>
+        <v>429</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>49</v>
+        <v>269</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>72</v>
+        <v>181</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>204</v>
+        <v>306</v>
       </c>
       <c r="H78" s="5" t="s">
         <v>12</v>
@@ -6970,7 +6978,7 @@
         <v>13</v>
       </c>
       <c r="K78" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L78" s="5" t="s">
         <v>12</v>
@@ -6982,7 +6990,10 @@
         <v>13</v>
       </c>
       <c r="Q78" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="R78" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="S78" s="5" t="s">
         <v>13</v>
@@ -6991,20 +7002,38 @@
         <v>13</v>
       </c>
       <c r="V78" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="W78" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="X78" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="Y78" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="Z78" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="AA78" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="AB78" s="8">
+        <v>0.02</v>
       </c>
     </row>
     <row r="79" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="D79" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D79" s="10" t="s">
         <v>107</v>
       </c>
       <c r="E79" s="5" t="s">
@@ -7014,7 +7043,7 @@
         <v>194</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H79" s="5" t="s">
         <v>12</v>
@@ -7052,13 +7081,13 @@
     </row>
     <row r="80" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>107</v>
@@ -7070,7 +7099,7 @@
         <v>194</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H80" s="5" t="s">
         <v>12</v>
@@ -7108,25 +7137,25 @@
     </row>
     <row r="81" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
-        <v>430</v>
+        <v>96</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>50</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>292</v>
+        <v>107</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>72</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>307</v>
+        <v>194</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>50</v>
+        <v>205</v>
       </c>
       <c r="H81" s="5" t="s">
         <v>12</v>
@@ -7144,19 +7173,13 @@
         <v>12</v>
       </c>
       <c r="M81" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N81" s="5" t="s">
-        <v>403</v>
+        <v>13</v>
       </c>
       <c r="O81" s="5" t="s">
         <v>13</v>
       </c>
       <c r="Q81" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="R81" s="5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="S81" s="5" t="s">
         <v>13</v>
@@ -7166,35 +7189,17 @@
       </c>
       <c r="V81" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="W81" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="X81" s="12">
-        <v>0.15</v>
-      </c>
-      <c r="Y81" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="Z81" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="AA81" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="AB81" s="12">
-        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="82" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
-        <v>224</v>
+        <v>97</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>107</v>
@@ -7203,10 +7208,10 @@
         <v>72</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="H82" s="5" t="s">
         <v>12</v>
@@ -7218,7 +7223,7 @@
         <v>13</v>
       </c>
       <c r="K82" s="5" t="s">
-        <v>457</v>
+        <v>14</v>
       </c>
       <c r="L82" s="5" t="s">
         <v>12</v>
@@ -7244,25 +7249,25 @@
     </row>
     <row r="83" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
-        <v>225</v>
+        <v>430</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>118</v>
+        <v>155</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>107</v>
+        <v>292</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>72</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>195</v>
+        <v>307</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>215</v>
+        <v>50</v>
       </c>
       <c r="H83" s="5" t="s">
         <v>12</v>
@@ -7274,19 +7279,25 @@
         <v>13</v>
       </c>
       <c r="K83" s="5" t="s">
-        <v>457</v>
+        <v>14</v>
       </c>
       <c r="L83" s="5" t="s">
         <v>12</v>
       </c>
       <c r="M83" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="N83" s="5" t="s">
+        <v>403</v>
       </c>
       <c r="O83" s="5" t="s">
         <v>13</v>
       </c>
       <c r="Q83" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="R83" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="S83" s="5" t="s">
         <v>13</v>
@@ -7296,29 +7307,47 @@
       </c>
       <c r="V83" s="5" t="s">
         <v>13</v>
+      </c>
+      <c r="W83" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="X83" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="Y83" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="Z83" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="AA83" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="AB83" s="8">
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="84" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="D84" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>197</v>
+        <v>72</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H84" s="5" t="s">
         <v>12</v>
@@ -7330,7 +7359,7 @@
         <v>13</v>
       </c>
       <c r="K84" s="5" t="s">
-        <v>17</v>
+        <v>457</v>
       </c>
       <c r="L84" s="5" t="s">
         <v>12</v>
@@ -7342,10 +7371,7 @@
         <v>13</v>
       </c>
       <c r="Q84" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="R84" s="5" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="S84" s="5" t="s">
         <v>13</v>
@@ -7354,30 +7380,30 @@
         <v>13</v>
       </c>
       <c r="V84" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="85" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
-        <v>99</v>
+        <v>225</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>168</v>
+        <v>118</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>197</v>
+        <v>72</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H85" s="5" t="s">
         <v>12</v>
@@ -7389,7 +7415,7 @@
         <v>13</v>
       </c>
       <c r="K85" s="5" t="s">
-        <v>17</v>
+        <v>457</v>
       </c>
       <c r="L85" s="5" t="s">
         <v>12</v>
@@ -7401,10 +7427,7 @@
         <v>13</v>
       </c>
       <c r="Q85" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="R85" s="5" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="S85" s="5" t="s">
         <v>13</v>
@@ -7413,30 +7436,30 @@
         <v>13</v>
       </c>
       <c r="V85" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
-        <v>431</v>
+        <v>98</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>270</v>
+        <v>53</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>300</v>
+        <v>197</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>308</v>
+        <v>196</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>309</v>
+        <v>216</v>
       </c>
       <c r="H86" s="5" t="s">
         <v>12</v>
@@ -7448,16 +7471,13 @@
         <v>13</v>
       </c>
       <c r="K86" s="5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L86" s="5" t="s">
         <v>12</v>
       </c>
       <c r="M86" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N86" s="15" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="O86" s="5" t="s">
         <v>13</v>
@@ -7466,7 +7486,7 @@
         <v>12</v>
       </c>
       <c r="R86" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="S86" s="5" t="s">
         <v>13</v>
@@ -7475,42 +7495,30 @@
         <v>13</v>
       </c>
       <c r="V86" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="W86" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="X86" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="Y86" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="Z86" s="12">
-        <v>0.02</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>72</v>
+        <v>197</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>85</v>
+        <v>196</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>174</v>
+        <v>216</v>
       </c>
       <c r="H87" s="5" t="s">
         <v>12</v>
@@ -7519,10 +7527,10 @@
         <v>12</v>
       </c>
       <c r="J87" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K87" s="5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L87" s="5" t="s">
         <v>12</v>
@@ -7537,39 +7545,39 @@
         <v>12</v>
       </c>
       <c r="R87" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S87" s="5" t="s">
         <v>13</v>
       </c>
       <c r="U87" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V87" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
-        <v>100</v>
+        <v>431</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>54</v>
+        <v>270</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>72</v>
+        <v>300</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>85</v>
+        <v>308</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>174</v>
+        <v>309</v>
       </c>
       <c r="H88" s="5" t="s">
         <v>12</v>
@@ -7578,7 +7586,7 @@
         <v>12</v>
       </c>
       <c r="J88" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K88" s="5" t="s">
         <v>13</v>
@@ -7587,7 +7595,10 @@
         <v>12</v>
       </c>
       <c r="M88" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="N88" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="O88" s="5" t="s">
         <v>13</v>
@@ -7596,39 +7607,51 @@
         <v>12</v>
       </c>
       <c r="R88" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="S88" s="5" t="s">
         <v>13</v>
       </c>
       <c r="U88" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V88" s="5" t="s">
         <v>13</v>
+      </c>
+      <c r="W88" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="X88" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="Y88" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="Z88" s="8">
+        <v>0.02</v>
       </c>
     </row>
     <row r="89" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="D89" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>181</v>
+        <v>72</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H89" s="5" t="s">
         <v>12</v>
@@ -7637,10 +7660,10 @@
         <v>12</v>
       </c>
       <c r="J89" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K89" s="5" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="L89" s="5" t="s">
         <v>12</v>
@@ -7661,33 +7684,33 @@
         <v>13</v>
       </c>
       <c r="U89" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V89" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="E90" s="13" t="s">
-        <v>173</v>
+        <v>107</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>187</v>
+        <v>85</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>217</v>
+        <v>174</v>
       </c>
       <c r="H90" s="5" t="s">
         <v>12</v>
@@ -7696,10 +7719,10 @@
         <v>12</v>
       </c>
       <c r="J90" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K90" s="5" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="L90" s="5" t="s">
         <v>12</v>
@@ -7711,13 +7734,16 @@
         <v>13</v>
       </c>
       <c r="Q90" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="R90" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="S90" s="5" t="s">
         <v>13</v>
       </c>
       <c r="U90" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V90" s="5" t="s">
         <v>13</v>
@@ -7725,25 +7751,25 @@
     </row>
     <row r="91" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D91" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E91" s="13" t="s">
-        <v>173</v>
+      <c r="E91" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>217</v>
+        <v>178</v>
       </c>
       <c r="H91" s="5" t="s">
         <v>12</v>
@@ -7761,22 +7787,16 @@
         <v>12</v>
       </c>
       <c r="M91" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N91" s="5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="O91" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="P91" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q91" s="5" t="s">
         <v>12</v>
       </c>
       <c r="R91" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="S91" s="5" t="s">
         <v>13</v>
@@ -7786,47 +7806,29 @@
       </c>
       <c r="V91" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="W91" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="X91" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="Y91" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="Z91" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="AA91" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="AB91" s="12">
-        <v>0.05</v>
       </c>
     </row>
     <row r="92" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
-        <v>432</v>
+        <v>102</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>271</v>
+        <v>56</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>272</v>
+        <v>161</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>181</v>
+        <v>162</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>310</v>
+        <v>217</v>
       </c>
       <c r="H92" s="5" t="s">
         <v>12</v>
@@ -7838,69 +7840,51 @@
         <v>13</v>
       </c>
       <c r="K92" s="5" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="L92" s="5" t="s">
         <v>12</v>
       </c>
       <c r="M92" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N92" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="O92" s="5" t="s">
         <v>13</v>
       </c>
       <c r="Q92" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="R92" s="5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="S92" s="5" t="s">
         <v>13</v>
       </c>
       <c r="U92" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V92" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="W92" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="X92" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="Y92" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="Z92" s="12">
-        <v>0.03</v>
       </c>
     </row>
     <row r="93" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
-        <v>433</v>
+        <v>103</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>296</v>
+        <v>56</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="D93" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E93" s="5" t="s">
-        <v>72</v>
+      <c r="E93" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>332</v>
+        <v>187</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>333</v>
+        <v>217</v>
       </c>
       <c r="H93" s="5" t="s">
         <v>12</v>
@@ -7909,66 +7893,72 @@
         <v>12</v>
       </c>
       <c r="J93" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K93" s="5" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="L93" s="5" t="s">
         <v>12</v>
       </c>
       <c r="M93" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="N93" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="O93" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="P93" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="Q93" s="5" t="s">
         <v>12</v>
       </c>
       <c r="R93" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S93" s="5" t="s">
         <v>13</v>
       </c>
       <c r="U93" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V93" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W93" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="X93" s="12">
-        <v>0.1</v>
+        <v>245</v>
+      </c>
+      <c r="X93" s="12" t="s">
+        <v>248</v>
       </c>
       <c r="Y93" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="Z93" s="12">
-        <v>0.1</v>
+        <v>246</v>
+      </c>
+      <c r="Z93" s="8">
+        <v>0.2</v>
       </c>
       <c r="AA93" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="AB93" s="12">
-        <v>0.02</v>
+        <v>247</v>
+      </c>
+      <c r="AB93" s="8">
+        <v>0.05</v>
       </c>
     </row>
     <row r="94" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>127</v>
+        <v>272</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="E94" s="5" t="s">
         <v>181</v>
@@ -7977,7 +7967,7 @@
         <v>79</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>182</v>
+        <v>310</v>
       </c>
       <c r="H94" s="5" t="s">
         <v>12</v>
@@ -7995,7 +7985,10 @@
         <v>12</v>
       </c>
       <c r="M94" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="N94" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="O94" s="5" t="s">
         <v>13</v>
@@ -8004,57 +7997,51 @@
         <v>12</v>
       </c>
       <c r="R94" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S94" s="5" t="s">
         <v>13</v>
       </c>
       <c r="U94" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V94" s="5" t="s">
         <v>13</v>
       </c>
       <c r="W94" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="X94" s="12">
+        <v>350</v>
+      </c>
+      <c r="X94" s="8">
         <v>0.1</v>
       </c>
       <c r="Y94" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="Z94" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="AA94" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="AB94" s="12">
-        <v>0.05</v>
+        <v>354</v>
+      </c>
+      <c r="Z94" s="8">
+        <v>0.03</v>
       </c>
     </row>
     <row r="95" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>311</v>
+        <v>72</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="H95" s="5" t="s">
         <v>12</v>
@@ -8063,7 +8050,7 @@
         <v>12</v>
       </c>
       <c r="J95" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K95" s="5" t="s">
         <v>13</v>
@@ -8081,7 +8068,7 @@
         <v>12</v>
       </c>
       <c r="R95" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S95" s="5" t="s">
         <v>13</v>
@@ -8093,45 +8080,45 @@
         <v>13</v>
       </c>
       <c r="W95" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="X95" s="12">
-        <v>0.03</v>
+        <v>362</v>
+      </c>
+      <c r="X95" s="8">
+        <v>0.1</v>
       </c>
       <c r="Y95" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="Z95" s="12">
-        <v>0.03</v>
+        <v>380</v>
+      </c>
+      <c r="Z95" s="8">
+        <v>0.1</v>
       </c>
       <c r="AA95" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="AB95" s="12">
+        <v>345</v>
+      </c>
+      <c r="AB95" s="8">
         <v>0.02</v>
       </c>
     </row>
     <row r="96" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>107</v>
+        <v>162</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>199</v>
+        <v>79</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>251</v>
+        <v>182</v>
       </c>
       <c r="H96" s="5" t="s">
         <v>12</v>
@@ -8149,10 +8136,7 @@
         <v>12</v>
       </c>
       <c r="M96" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N96" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="O96" s="5" t="s">
         <v>13</v>
@@ -8161,7 +8145,7 @@
         <v>12</v>
       </c>
       <c r="R96" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S96" s="5" t="s">
         <v>13</v>
@@ -8170,42 +8154,48 @@
         <v>13</v>
       </c>
       <c r="V96" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W96" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="X96" s="12">
+        <v>355</v>
+      </c>
+      <c r="X96" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="Y96" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="Z96" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="AA96" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="AB96" s="8">
         <v>0.05</v>
-      </c>
-      <c r="Y96" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="Z96" s="5" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="97" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>127</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>72</v>
+        <v>311</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>180</v>
+        <v>312</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>191</v>
+        <v>313</v>
       </c>
       <c r="H97" s="5" t="s">
         <v>12</v>
@@ -8223,10 +8213,7 @@
         <v>12</v>
       </c>
       <c r="M97" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N97" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="O97" s="5" t="s">
         <v>13</v>
@@ -8235,7 +8222,7 @@
         <v>12</v>
       </c>
       <c r="R97" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="S97" s="5" t="s">
         <v>13</v>
@@ -8244,48 +8231,48 @@
         <v>12</v>
       </c>
       <c r="V97" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W97" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="X97" s="12">
-        <v>0.2</v>
+        <v>347</v>
+      </c>
+      <c r="X97" s="8">
+        <v>0.03</v>
       </c>
       <c r="Y97" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="Z97" s="12">
-        <v>0.15</v>
+        <v>246</v>
+      </c>
+      <c r="Z97" s="8">
+        <v>0.03</v>
       </c>
       <c r="AA97" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="AB97" s="12">
-        <v>0.1</v>
+        <v>247</v>
+      </c>
+      <c r="AB97" s="8">
+        <v>0.02</v>
       </c>
     </row>
     <row r="98" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D98" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>72</v>
+        <v>198</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>314</v>
+        <v>251</v>
       </c>
       <c r="H98" s="5" t="s">
         <v>12</v>
@@ -8306,7 +8293,7 @@
         <v>12</v>
       </c>
       <c r="N98" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O98" s="5" t="s">
         <v>13</v>
@@ -8315,45 +8302,39 @@
         <v>12</v>
       </c>
       <c r="R98" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S98" s="5" t="s">
         <v>13</v>
       </c>
       <c r="U98" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V98" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W98" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="X98" s="12">
-        <v>0.1</v>
+      <c r="X98" s="8">
+        <v>0.05</v>
       </c>
       <c r="Y98" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="Z98" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="AA98" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="AB98" s="12">
-        <v>0.03</v>
+        <v>357</v>
+      </c>
+      <c r="Z98" s="5" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="99" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
       <c r="D99" s="5" t="s">
         <v>107</v>
@@ -8362,10 +8343,10 @@
         <v>72</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>314</v>
+        <v>191</v>
       </c>
       <c r="H99" s="5" t="s">
         <v>12</v>
@@ -8386,7 +8367,7 @@
         <v>12</v>
       </c>
       <c r="N99" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O99" s="5" t="s">
         <v>13</v>
@@ -8395,7 +8376,7 @@
         <v>12</v>
       </c>
       <c r="R99" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="S99" s="5" t="s">
         <v>13</v>
@@ -8404,48 +8385,48 @@
         <v>12</v>
       </c>
       <c r="V99" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W99" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="X99" s="12">
+      <c r="X99" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="Y99" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="Z99" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="AA99" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="AB99" s="8">
         <v>0.1</v>
-      </c>
-      <c r="Y99" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="Z99" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="AA99" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="AB99" s="12">
-        <v>0.03</v>
       </c>
     </row>
     <row r="100" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="D100" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>315</v>
+        <v>72</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>316</v>
+        <v>195</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H100" s="5" t="s">
         <v>12</v>
@@ -8463,7 +8444,10 @@
         <v>12</v>
       </c>
       <c r="M100" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="N100" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="O100" s="5" t="s">
         <v>13</v>
@@ -8484,45 +8468,45 @@
         <v>13</v>
       </c>
       <c r="W100" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="X100" s="5" t="s">
-        <v>361</v>
+        <v>356</v>
+      </c>
+      <c r="X100" s="8">
+        <v>0.1</v>
       </c>
       <c r="Y100" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="Z100" s="5" t="s">
-        <v>361</v>
+        <v>350</v>
+      </c>
+      <c r="Z100" s="8">
+        <v>0.05</v>
       </c>
       <c r="AA100" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="AB100" s="5" t="s">
-        <v>361</v>
+        <v>348</v>
+      </c>
+      <c r="AB100" s="8">
+        <v>0.03</v>
       </c>
     </row>
     <row r="101" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="D101" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>315</v>
+        <v>72</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>316</v>
+        <v>195</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H101" s="5" t="s">
         <v>12</v>
@@ -8540,7 +8524,10 @@
         <v>12</v>
       </c>
       <c r="M101" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="N101" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="O101" s="5" t="s">
         <v>13</v>
@@ -8561,54 +8548,54 @@
         <v>13</v>
       </c>
       <c r="W101" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="X101" s="5" t="s">
-        <v>361</v>
+        <v>356</v>
+      </c>
+      <c r="X101" s="8">
+        <v>0.1</v>
       </c>
       <c r="Y101" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="Z101" s="5" t="s">
-        <v>361</v>
+        <v>350</v>
+      </c>
+      <c r="Z101" s="8">
+        <v>0.05</v>
       </c>
       <c r="AA101" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="AB101" s="5" t="s">
-        <v>361</v>
+        <v>348</v>
+      </c>
+      <c r="AB101" s="8">
+        <v>0.03</v>
       </c>
     </row>
     <row r="102" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
-        <v>170</v>
+        <v>440</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>64</v>
+        <v>277</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="D102" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>72</v>
+        <v>315</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>194</v>
+        <v>316</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>203</v>
+        <v>317</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I102" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J102" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K102" s="5" t="s">
         <v>13</v>
@@ -8623,39 +8610,60 @@
         <v>13</v>
       </c>
       <c r="Q102" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="R102" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="S102" s="5" t="s">
         <v>13</v>
       </c>
       <c r="U102" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V102" s="5" t="s">
         <v>13</v>
+      </c>
+      <c r="W102" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="X102" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y102" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="Z102" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="AA102" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="AB102" s="5" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="103" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
-        <v>171</v>
+        <v>441</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>64</v>
+        <v>277</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>72</v>
+        <v>315</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>194</v>
+        <v>316</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>203</v>
+        <v>317</v>
       </c>
       <c r="H103" s="5" t="s">
         <v>12</v>
@@ -8679,27 +8687,48 @@
         <v>13</v>
       </c>
       <c r="Q103" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="R103" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="S103" s="5" t="s">
         <v>13</v>
       </c>
       <c r="U103" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V103" s="5" t="s">
         <v>13</v>
+      </c>
+      <c r="W103" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="X103" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y103" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="Z103" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="AA103" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="AB103" s="5" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="104" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
-        <v>442</v>
+        <v>170</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>278</v>
+        <v>64</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>272</v>
+        <v>158</v>
       </c>
       <c r="D104" s="5" t="s">
         <v>107</v>
@@ -8708,19 +8737,19 @@
         <v>72</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>307</v>
+        <v>194</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>318</v>
+        <v>203</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I104" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J104" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K104" s="5" t="s">
         <v>13</v>
@@ -8729,69 +8758,45 @@
         <v>12</v>
       </c>
       <c r="M104" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N104" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="O104" s="5" t="s">
         <v>13</v>
       </c>
       <c r="Q104" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="R104" s="5" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="S104" s="5" t="s">
         <v>13</v>
       </c>
       <c r="U104" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V104" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="W104" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="X104" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="Y104" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="Z104" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="AA104" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="AB104" s="12">
-        <v>0.05</v>
       </c>
     </row>
     <row r="105" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
-        <v>443</v>
+        <v>171</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>279</v>
+        <v>64</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>181</v>
+        <v>72</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>319</v>
+        <v>194</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>320</v>
+        <v>203</v>
       </c>
       <c r="H105" s="5" t="s">
         <v>12</v>
@@ -8815,10 +8820,7 @@
         <v>13</v>
       </c>
       <c r="Q105" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="R105" s="5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="S105" s="5" t="s">
         <v>13</v>
@@ -8828,35 +8830,17 @@
       </c>
       <c r="V105" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="W105" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="X105" s="12">
-        <v>0.02</v>
-      </c>
-      <c r="Y105" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="Z105" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="AA105" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="AB105" s="5" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="106" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>124</v>
+        <v>272</v>
       </c>
       <c r="D106" s="5" t="s">
         <v>107</v>
@@ -8865,10 +8849,10 @@
         <v>72</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H106" s="5" t="s">
         <v>12</v>
@@ -8880,13 +8864,16 @@
         <v>13</v>
       </c>
       <c r="K106" s="5" t="s">
-        <v>457</v>
+        <v>13</v>
       </c>
       <c r="L106" s="5" t="s">
         <v>12</v>
       </c>
       <c r="M106" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="N106" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="O106" s="5" t="s">
         <v>13</v>
@@ -8895,7 +8882,7 @@
         <v>12</v>
       </c>
       <c r="R106" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="S106" s="5" t="s">
         <v>13</v>
@@ -8907,45 +8894,45 @@
         <v>13</v>
       </c>
       <c r="W106" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="X106" s="12">
+        <v>342</v>
+      </c>
+      <c r="X106" s="8">
         <v>0.2</v>
       </c>
       <c r="Y106" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="Z106" s="12">
+        <v>364</v>
+      </c>
+      <c r="Z106" s="8">
         <v>0.1</v>
       </c>
       <c r="AA106" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="AB106" s="12">
+        <v>365</v>
+      </c>
+      <c r="AB106" s="8">
         <v>0.05</v>
       </c>
     </row>
     <row r="107" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D107" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>72</v>
+        <v>181</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H107" s="5" t="s">
         <v>12</v>
@@ -8978,39 +8965,39 @@
         <v>13</v>
       </c>
       <c r="U107" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V107" s="5" t="s">
         <v>13</v>
       </c>
       <c r="W107" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="X107" s="12">
-        <v>0.2</v>
+        <v>366</v>
+      </c>
+      <c r="X107" s="8">
+        <v>0.02</v>
       </c>
       <c r="Y107" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="Z107" s="12">
-        <v>0.1</v>
+        <v>367</v>
+      </c>
+      <c r="Z107" s="8">
+        <v>0.05</v>
       </c>
       <c r="AA107" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="AB107" s="12">
-        <v>0.05</v>
+        <v>368</v>
+      </c>
+      <c r="AB107" s="5" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="108" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="D108" s="5" t="s">
         <v>107</v>
@@ -9034,16 +9021,13 @@
         <v>13</v>
       </c>
       <c r="K108" s="5" t="s">
-        <v>13</v>
+        <v>457</v>
       </c>
       <c r="L108" s="5" t="s">
         <v>12</v>
       </c>
       <c r="M108" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N108" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="O108" s="5" t="s">
         <v>13</v>
@@ -9064,33 +9048,33 @@
         <v>13</v>
       </c>
       <c r="W108" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="X108" s="12">
+        <v>350</v>
+      </c>
+      <c r="X108" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="Y108" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="Z108" s="8">
         <v>0.1</v>
       </c>
-      <c r="Y108" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="Z108" s="12">
-        <v>0.1</v>
-      </c>
       <c r="AA108" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="AB108" s="12">
-        <v>0.08</v>
+        <v>354</v>
+      </c>
+      <c r="AB108" s="8">
+        <v>0.05</v>
       </c>
     </row>
     <row r="109" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>282</v>
+        <v>126</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>107</v>
@@ -9120,10 +9104,7 @@
         <v>12</v>
       </c>
       <c r="M109" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N109" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="O109" s="5" t="s">
         <v>13</v>
@@ -9144,45 +9125,45 @@
         <v>13</v>
       </c>
       <c r="W109" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="X109" s="12">
+        <v>350</v>
+      </c>
+      <c r="X109" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="Y109" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="Z109" s="8">
         <v>0.1</v>
       </c>
-      <c r="Y109" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="Z109" s="12">
-        <v>0.1</v>
-      </c>
       <c r="AA109" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="AB109" s="12">
-        <v>0.08</v>
+        <v>354</v>
+      </c>
+      <c r="AB109" s="8">
+        <v>0.05</v>
       </c>
     </row>
     <row r="110" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>284</v>
+        <v>167</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>293</v>
+        <v>107</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>300</v>
+        <v>72</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H110" s="5" t="s">
         <v>12</v>
@@ -9194,13 +9175,16 @@
         <v>13</v>
       </c>
       <c r="K110" s="5" t="s">
-        <v>456</v>
+        <v>13</v>
       </c>
       <c r="L110" s="5" t="s">
         <v>12</v>
       </c>
       <c r="M110" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="N110" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="O110" s="5" t="s">
         <v>13</v>
@@ -9215,33 +9199,39 @@
         <v>13</v>
       </c>
       <c r="U110" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V110" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W110" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="X110" s="12">
-        <v>0.05</v>
+        <v>370</v>
+      </c>
+      <c r="X110" s="8">
+        <v>0.1</v>
       </c>
       <c r="Y110" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="Z110" s="12">
-        <v>0.02</v>
+        <v>371</v>
+      </c>
+      <c r="Z110" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="AA110" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="AB110" s="8">
+        <v>0.08</v>
       </c>
     </row>
     <row r="111" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
-        <v>142</v>
+        <v>447</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>57</v>
+        <v>281</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>126</v>
+        <v>282</v>
       </c>
       <c r="D111" s="5" t="s">
         <v>107</v>
@@ -9250,10 +9240,10 @@
         <v>72</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>180</v>
+        <v>303</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>191</v>
+        <v>321</v>
       </c>
       <c r="H111" s="5" t="s">
         <v>12</v>
@@ -9271,7 +9261,10 @@
         <v>12</v>
       </c>
       <c r="M111" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="N111" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="O111" s="5" t="s">
         <v>13</v>
@@ -9286,33 +9279,51 @@
         <v>13</v>
       </c>
       <c r="U111" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V111" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="W111" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="X111" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="Y111" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="Z111" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="AA111" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="AB111" s="8">
+        <v>0.08</v>
       </c>
     </row>
     <row r="112" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
-        <v>104</v>
+        <v>448</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>57</v>
+        <v>283</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>153</v>
+        <v>284</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>107</v>
+        <v>293</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>72</v>
+        <v>300</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>180</v>
+        <v>322</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>191</v>
+        <v>323</v>
       </c>
       <c r="H112" s="5" t="s">
         <v>12</v>
@@ -9324,7 +9335,7 @@
         <v>13</v>
       </c>
       <c r="K112" s="5" t="s">
-        <v>13</v>
+        <v>456</v>
       </c>
       <c r="L112" s="5" t="s">
         <v>12</v>
@@ -9350,28 +9361,40 @@
       <c r="V112" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="W112" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="X112" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="Y112" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="Z112" s="8">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="113" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
-        <v>449</v>
+        <v>142</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>285</v>
+        <v>57</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>286</v>
+        <v>126</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>324</v>
+        <v>72</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>325</v>
+        <v>180</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>326</v>
+        <v>191</v>
       </c>
       <c r="H113" s="5" t="s">
         <v>12</v>
@@ -9404,51 +9427,33 @@
         <v>13</v>
       </c>
       <c r="U113" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V113" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="W113" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="X113" s="12">
-        <v>0.08</v>
-      </c>
-      <c r="Y113" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="Z113" s="12">
-        <v>0.08</v>
-      </c>
-      <c r="AA113" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="AB113" s="12">
-        <v>0.02</v>
       </c>
     </row>
     <row r="114" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>159</v>
+        <v>107</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>198</v>
+        <v>72</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="H114" s="5" t="s">
         <v>12</v>
@@ -9466,10 +9471,7 @@
         <v>12</v>
       </c>
       <c r="M114" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N114" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="O114" s="5" t="s">
         <v>13</v>
@@ -9487,36 +9489,30 @@
         <v>13</v>
       </c>
       <c r="V114" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="W114" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="X114" s="12">
-        <v>0.2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
-        <v>106</v>
+        <v>449</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>58</v>
+        <v>285</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>153</v>
+        <v>286</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>198</v>
+        <v>324</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>199</v>
+        <v>325</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>218</v>
+        <v>326</v>
       </c>
       <c r="H115" s="5" t="s">
         <v>12</v>
@@ -9525,19 +9521,16 @@
         <v>12</v>
       </c>
       <c r="J115" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K115" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L115" s="5" t="s">
         <v>12</v>
       </c>
       <c r="M115" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N115" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="O115" s="5" t="s">
         <v>13</v>
@@ -9555,36 +9548,48 @@
         <v>12</v>
       </c>
       <c r="V115" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W115" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="X115" s="12">
-        <v>0.2</v>
+        <v>372</v>
+      </c>
+      <c r="X115" s="8">
+        <v>0.08</v>
+      </c>
+      <c r="Y115" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="Z115" s="8">
+        <v>0.08</v>
+      </c>
+      <c r="AA115" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="AB115" s="8">
+        <v>0.02</v>
       </c>
     </row>
     <row r="116" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
-        <v>450</v>
+        <v>105</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>287</v>
+        <v>58</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>107</v>
+        <v>159</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>72</v>
+        <v>198</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>327</v>
+        <v>218</v>
       </c>
       <c r="H116" s="5" t="s">
         <v>12</v>
@@ -9602,7 +9607,10 @@
         <v>12</v>
       </c>
       <c r="M116" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="N116" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="O116" s="5" t="s">
         <v>13</v>
@@ -9617,51 +9625,39 @@
         <v>13</v>
       </c>
       <c r="U116" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V116" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W116" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="X116" s="12">
-        <v>0.4</v>
-      </c>
-      <c r="Y116" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="Z116" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="AA116" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="AB116" s="12">
-        <v>0.05</v>
+        <v>245</v>
+      </c>
+      <c r="X116" s="8">
+        <v>0.2</v>
       </c>
     </row>
     <row r="117" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
-        <v>451</v>
+        <v>106</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>287</v>
+        <v>58</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="D117" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>72</v>
+        <v>198</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>327</v>
+        <v>218</v>
       </c>
       <c r="H117" s="5" t="s">
         <v>12</v>
@@ -9670,16 +9666,19 @@
         <v>12</v>
       </c>
       <c r="J117" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K117" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L117" s="5" t="s">
         <v>12</v>
       </c>
       <c r="M117" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="N117" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="O117" s="5" t="s">
         <v>13</v>
@@ -9697,36 +9696,24 @@
         <v>12</v>
       </c>
       <c r="V117" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W117" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="X117" s="12">
-        <v>0.4</v>
-      </c>
-      <c r="Y117" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="Z117" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="AA117" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="AB117" s="12">
-        <v>0.05</v>
+        <v>245</v>
+      </c>
+      <c r="X117" s="8">
+        <v>0.2</v>
       </c>
     </row>
     <row r="118" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D118" s="5" t="s">
         <v>107</v>
@@ -9735,10 +9722,10 @@
         <v>72</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H118" s="5" t="s">
         <v>12</v>
@@ -9774,39 +9761,39 @@
         <v>12</v>
       </c>
       <c r="V118" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W118" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="X118" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="Y118" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z118" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AA118" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="X118" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="Y118" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="Z118" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="AA118" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="AB118" s="12">
-        <v>0.02</v>
+      <c r="AB118" s="8">
+        <v>0.05</v>
       </c>
     </row>
     <row r="119" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>290</v>
+        <v>126</v>
       </c>
       <c r="D119" s="5" t="s">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="E119" s="5" t="s">
         <v>72</v>
@@ -9815,10 +9802,10 @@
         <v>180</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>191</v>
+        <v>327</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I119" s="5" t="s">
         <v>12</v>
@@ -9833,10 +9820,7 @@
         <v>12</v>
       </c>
       <c r="M119" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N119" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="O119" s="5" t="s">
         <v>13</v>
@@ -9857,45 +9841,45 @@
         <v>12</v>
       </c>
       <c r="W119" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="X119" s="12">
-        <v>0.2</v>
+        <v>342</v>
+      </c>
+      <c r="X119" s="8">
+        <v>0.4</v>
       </c>
       <c r="Y119" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="Z119" s="12">
-        <v>0.02</v>
+        <v>354</v>
+      </c>
+      <c r="Z119" s="8">
+        <v>0.05</v>
       </c>
       <c r="AA119" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="AB119" s="12">
-        <v>0.1</v>
+        <v>353</v>
+      </c>
+      <c r="AB119" s="8">
+        <v>0.05</v>
       </c>
     </row>
     <row r="120" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="E120" s="5" t="s">
         <v>72</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>191</v>
+        <v>328</v>
       </c>
       <c r="H120" s="5" t="s">
         <v>12</v>
@@ -9913,10 +9897,7 @@
         <v>12</v>
       </c>
       <c r="M120" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N120" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="O120" s="5" t="s">
         <v>13</v>
@@ -9934,51 +9915,51 @@
         <v>12</v>
       </c>
       <c r="V120" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W120" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="X120" s="12">
+        <v>353</v>
+      </c>
+      <c r="X120" s="8">
         <v>0.2</v>
       </c>
       <c r="Y120" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="Z120" s="12">
+        <v>374</v>
+      </c>
+      <c r="Z120" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="AA120" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="AB120" s="8">
         <v>0.02</v>
-      </c>
-      <c r="AA120" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="AB120" s="12">
-        <v>0.1</v>
       </c>
     </row>
     <row r="121" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>153</v>
+        <v>290</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E121" s="13" t="s">
-        <v>173</v>
+        <v>162</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>329</v>
+        <v>191</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I121" s="5" t="s">
         <v>12</v>
@@ -9987,7 +9968,7 @@
         <v>13</v>
       </c>
       <c r="K121" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L121" s="5" t="s">
         <v>12</v>
@@ -9996,7 +9977,7 @@
         <v>12</v>
       </c>
       <c r="N121" s="5" t="s">
-        <v>402</v>
+        <v>19</v>
       </c>
       <c r="O121" s="5" t="s">
         <v>13</v>
@@ -10011,51 +9992,51 @@
         <v>13</v>
       </c>
       <c r="U121" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V121" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W121" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="X121" s="12">
-        <v>0.05</v>
+        <v>356</v>
+      </c>
+      <c r="X121" s="8">
+        <v>0.2</v>
       </c>
       <c r="Y121" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="Z121" s="12">
-        <v>0.05</v>
+        <v>376</v>
+      </c>
+      <c r="Z121" s="8">
+        <v>0.02</v>
       </c>
       <c r="AA121" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="AB121" s="5" t="s">
-        <v>358</v>
+        <v>377</v>
+      </c>
+      <c r="AB121" s="8">
+        <v>0.1</v>
       </c>
     </row>
     <row r="122" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
-        <v>119</v>
+        <v>454</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>59</v>
+        <v>289</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>107</v>
+        <v>162</v>
       </c>
       <c r="E122" s="5" t="s">
         <v>72</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="G122" s="5" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="H122" s="5" t="s">
         <v>12</v>
@@ -10066,14 +10047,17 @@
       <c r="J122" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K122" s="15" t="s">
+      <c r="K122" s="5" t="s">
         <v>13</v>
       </c>
       <c r="L122" s="5" t="s">
         <v>12</v>
       </c>
       <c r="M122" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="N122" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="O122" s="5" t="s">
         <v>13</v>
@@ -10091,6 +10075,163 @@
         <v>12</v>
       </c>
       <c r="V122" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="W122" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="X122" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="Y122" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z122" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="AA122" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="AB122" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E123" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G123" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="H123" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I123" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J123" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K123" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L123" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M123" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N123" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="O123" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q123" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="R123" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S123" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="U123" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="V123" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="W123" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="X123" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="Y123" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="Z123" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AA123" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="AB123" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="124" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="G124" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="H124" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I124" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J124" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K124" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L124" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M124" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O124" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q124" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="R124" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S124" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="U124" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="V124" s="5" t="s">
         <v>13</v>
       </c>
     </row>

--- a/TEST.xlsx
+++ b/TEST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\QF-PRO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F323EAD9-7F6E-487C-8378-C9D9B298CCB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD20A53-5928-46DC-9E79-41105A0584E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,17 +18,14 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DATA!$A$2:$AF$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2497" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2514" uniqueCount="491">
   <si>
     <t>FORMA</t>
   </si>
@@ -1497,6 +1494,18 @@
   </si>
   <si>
     <t>GOTA OFTALMICA</t>
+  </si>
+  <si>
+    <t>LACTULOSA</t>
+  </si>
+  <si>
+    <t>lac_65</t>
+  </si>
+  <si>
+    <t>ENEMAS</t>
+  </si>
+  <si>
+    <t>OSMOTICO</t>
   </si>
 </sst>
 </file>
@@ -1534,7 +1543,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1568,12 +1577,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1646,8 +1649,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1659,6 +1660,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1998,11 +2005,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF124"/>
+  <dimension ref="A1:AF125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2020,46 +2027,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="21" t="s">
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="22" t="s">
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="20"/>
     </row>
     <row r="2" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -2159,27 +2166,27 @@
         <v>243</v>
       </c>
     </row>
-    <row r="3" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>461</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>458</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>467</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>469</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>468</v>
+    <row r="3" spans="1:32" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>488</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>487</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0.65</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>490</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>12</v>
@@ -2218,26 +2225,16 @@
       <c r="V3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="W3" s="10"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="13"/>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="10"/>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="10"/>
     </row>
     <row r="4" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>459</v>
-      </c>
-      <c r="B4" s="17" t="s">
+        <v>461</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>458</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>167</v>
+        <v>286</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>107</v>
@@ -2288,16 +2285,26 @@
       <c r="V4" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="W4" s="10"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
     </row>
     <row r="5" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>460</v>
-      </c>
-      <c r="B5" s="17" t="s">
+        <v>459</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>458</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>123</v>
+        <v>167</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>107</v>
@@ -2350,26 +2357,26 @@
       </c>
     </row>
     <row r="6" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
-        <v>475</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>462</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>125</v>
+      <c r="A6" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>478</v>
+      <c r="E6" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>468</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>12</v>
@@ -2411,22 +2418,25 @@
     </row>
     <row r="7" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
-        <v>477</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>463</v>
+        <v>475</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>462</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>125</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>470</v>
+      <c r="E7" s="5" t="s">
+        <v>198</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>471</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>468</v>
+        <v>472</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>478</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>12</v>
@@ -2467,17 +2477,17 @@
       </c>
     </row>
     <row r="8" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
-        <v>474</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>464</v>
+      <c r="A8" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>463</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>467</v>
+      <c r="E8" s="14" t="s">
+        <v>470</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>471</v>
@@ -2525,22 +2535,22 @@
     </row>
     <row r="9" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>479</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>159</v>
+        <v>474</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>464</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>484</v>
+        <v>467</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>486</v>
+        <v>468</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>12</v>
@@ -2582,28 +2592,25 @@
     </row>
     <row r="10" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>481</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>480</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>482</v>
+        <v>483</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>479</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>326</v>
+        <v>159</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>485</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>486</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I10" s="10" t="s">
         <v>12</v>
@@ -2642,25 +2649,28 @@
     </row>
     <row r="11" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>473</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>464</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>467</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>471</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>468</v>
+        <v>481</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>326</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I11" s="10" t="s">
         <v>12</v>
@@ -2698,29 +2708,26 @@
       </c>
     </row>
     <row r="12" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
-        <v>476</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>465</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>466</v>
+      <c r="A12" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>464</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>178</v>
+        <v>159</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>468</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>12</v>
@@ -2757,92 +2764,75 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D13" s="5" t="s">
+    <row r="13" spans="1:32" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>465</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>107</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>388</v>
+        <v>79</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L13" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="5" t="s">
         <v>12</v>
       </c>
       <c r="M13" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="N13" s="5"/>
       <c r="O13" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="P13" s="5"/>
       <c r="Q13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="R13" s="5" t="s">
-        <v>24</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="R13" s="5"/>
       <c r="S13" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="T13" s="5"/>
       <c r="U13" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="W13" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="X13" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="Y13" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="Z13" s="8">
-        <v>0.03</v>
-      </c>
-      <c r="AA13" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="AB13" s="8">
-        <v>0.01</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>252</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>107</v>
@@ -2854,7 +2844,7 @@
         <v>388</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>12</v>
@@ -2868,7 +2858,7 @@
       <c r="K14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L14" s="5" t="s">
+      <c r="L14" s="10" t="s">
         <v>12</v>
       </c>
       <c r="M14" s="5" t="s">
@@ -2890,7 +2880,7 @@
         <v>12</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W14" s="5" t="s">
         <v>397</v>
@@ -2911,27 +2901,27 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:32" s="5" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>120</v>
+        <v>405</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>26</v>
+        <v>252</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>72</v>
+        <v>185</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>194</v>
+        <v>388</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>175</v>
+        <v>414</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>12</v>
@@ -2943,7 +2933,7 @@
         <v>13</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L15" s="5" t="s">
         <v>12</v>
@@ -2958,54 +2948,54 @@
         <v>12</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S15" s="5" t="s">
         <v>13</v>
       </c>
       <c r="U15" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V15" s="5" t="s">
         <v>13</v>
       </c>
       <c r="W15" s="5" t="s">
-        <v>369</v>
+        <v>397</v>
       </c>
       <c r="X15" s="8">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="Y15" s="5" t="s">
-        <v>340</v>
+        <v>399</v>
       </c>
       <c r="Z15" s="8">
-        <v>0.14000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="AA15" s="5" t="s">
-        <v>392</v>
+        <v>415</v>
       </c>
       <c r="AB15" s="8">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" s="5" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>406</v>
+        <v>120</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>257</v>
+        <v>122</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>292</v>
+        <v>107</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>72</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>307</v>
+        <v>194</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>175</v>
@@ -3067,22 +3057,22 @@
     </row>
     <row r="17" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>121</v>
+        <v>406</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>146</v>
+        <v>257</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>162</v>
+        <v>292</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>72</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>194</v>
+        <v>307</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>175</v>
@@ -3144,25 +3134,25 @@
     </row>
     <row r="18" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>407</v>
+        <v>121</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>253</v>
+        <v>26</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>173</v>
+        <v>162</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>383</v>
+        <v>194</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>384</v>
+        <v>175</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>12</v>
@@ -3174,16 +3164,13 @@
         <v>13</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L18" s="5" t="s">
         <v>12</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N18" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O18" s="5" t="s">
         <v>13</v>
@@ -3192,7 +3179,7 @@
         <v>12</v>
       </c>
       <c r="R18" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S18" s="5" t="s">
         <v>13</v>
@@ -3201,36 +3188,36 @@
         <v>13</v>
       </c>
       <c r="V18" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W18" s="5" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="X18" s="8">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="Y18" s="5" t="s">
-        <v>394</v>
+        <v>340</v>
       </c>
       <c r="Z18" s="8">
-        <v>0.01</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AA18" s="5" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="AB18" s="8">
-        <v>0.02</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="19" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>253</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>165</v>
+        <v>126</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>107</v>
@@ -3304,25 +3291,25 @@
     </row>
     <row r="20" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>132</v>
+        <v>408</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>27</v>
+        <v>253</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>72</v>
+      <c r="E20" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>85</v>
+        <v>383</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>174</v>
+        <v>384</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>12</v>
@@ -3331,7 +3318,7 @@
         <v>12</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K20" s="5" t="s">
         <v>13</v>
@@ -3340,45 +3327,69 @@
         <v>12</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="O20" s="5" t="s">
         <v>13</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="S20" s="5" t="s">
         <v>13</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V20" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="W20" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="X20" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="Y20" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="Z20" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="AA20" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="AB20" s="8">
+        <v>0.02</v>
       </c>
     </row>
     <row r="21" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>181</v>
+        <v>72</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>184</v>
+        <v>85</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>12</v>
@@ -3387,7 +3398,7 @@
         <v>12</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>13</v>
@@ -3408,7 +3419,7 @@
         <v>13</v>
       </c>
       <c r="U21" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V21" s="5" t="s">
         <v>13</v>
@@ -3416,25 +3427,25 @@
     </row>
     <row r="22" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>72</v>
+        <v>181</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>12</v>
@@ -3458,16 +3469,13 @@
         <v>13</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="R22" s="5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="S22" s="5" t="s">
         <v>13</v>
       </c>
       <c r="U22" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V22" s="5" t="s">
         <v>13</v>
@@ -3475,25 +3483,25 @@
     </row>
     <row r="23" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>181</v>
+        <v>72</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>79</v>
+        <v>180</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>12</v>
@@ -3505,7 +3513,7 @@
         <v>13</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="L23" s="5" t="s">
         <v>12</v>
@@ -3517,33 +3525,30 @@
         <v>13</v>
       </c>
       <c r="Q23" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="R23" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="S23" s="5" t="s">
         <v>13</v>
       </c>
       <c r="U23" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V23" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="W23" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="X23" s="8">
-        <v>0.1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>107</v>
@@ -3599,25 +3604,25 @@
     </row>
     <row r="25" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>409</v>
+        <v>76</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>295</v>
+        <v>30</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>72</v>
+        <v>181</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>303</v>
+        <v>79</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>331</v>
+        <v>182</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>12</v>
@@ -3629,7 +3634,7 @@
         <v>13</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="L25" s="5" t="s">
         <v>12</v>
@@ -3641,60 +3646,45 @@
         <v>13</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="R25" s="5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="S25" s="5" t="s">
         <v>13</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V25" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W25" s="5" t="s">
-        <v>379</v>
+        <v>250</v>
       </c>
       <c r="X25" s="8">
         <v>0.1</v>
       </c>
-      <c r="Y25" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="Z25" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="AA25" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="AB25" s="8">
-        <v>0.1</v>
-      </c>
     </row>
     <row r="26" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>109</v>
+        <v>409</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>31</v>
+        <v>295</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>181</v>
+        <v>72</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>79</v>
+        <v>303</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>183</v>
+        <v>331</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>12</v>
@@ -3706,7 +3696,7 @@
         <v>13</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="L26" s="5" t="s">
         <v>12</v>
@@ -3718,27 +3708,48 @@
         <v>13</v>
       </c>
       <c r="Q26" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="R26" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="S26" s="5" t="s">
         <v>13</v>
       </c>
       <c r="U26" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V26" s="5" t="s">
         <v>13</v>
+      </c>
+      <c r="W26" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="X26" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="Y26" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="Z26" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="AA26" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="AB26" s="8">
+        <v>0.1</v>
       </c>
     </row>
     <row r="27" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>107</v>
@@ -3762,7 +3773,7 @@
         <v>13</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="L27" s="5" t="s">
         <v>12</v>
@@ -3788,25 +3799,25 @@
     </row>
     <row r="28" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E28" s="9" t="s">
-        <v>173</v>
+      <c r="E28" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>172</v>
+        <v>79</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>12</v>
@@ -3818,7 +3829,7 @@
         <v>13</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="L28" s="5" t="s">
         <v>12</v>
@@ -3830,10 +3841,7 @@
         <v>13</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="R28" s="5" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="S28" s="5" t="s">
         <v>13</v>
@@ -3842,18 +3850,18 @@
         <v>13</v>
       </c>
       <c r="V28" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>107</v>
@@ -3906,13 +3914,13 @@
     </row>
     <row r="30" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>107</v>
@@ -3927,7 +3935,7 @@
         <v>177</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>12</v>
@@ -3936,7 +3944,7 @@
         <v>13</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="L30" s="5" t="s">
         <v>12</v>
@@ -3965,25 +3973,25 @@
     </row>
     <row r="31" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>181</v>
+      <c r="E31" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>13</v>
@@ -4007,7 +4015,10 @@
         <v>13</v>
       </c>
       <c r="Q31" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="R31" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="S31" s="5" t="s">
         <v>13</v>
@@ -4021,13 +4032,13 @@
     </row>
     <row r="32" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>107</v>
@@ -4077,28 +4088,28 @@
     </row>
     <row r="33" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>416</v>
+        <v>110</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>254</v>
+        <v>60</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>256</v>
+        <v>123</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>293</v>
+        <v>107</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>300</v>
+        <v>181</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>322</v>
+        <v>79</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>385</v>
+        <v>183</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>12</v>
@@ -4119,10 +4130,7 @@
         <v>13</v>
       </c>
       <c r="Q33" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="R33" s="5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="S33" s="5" t="s">
         <v>13</v>
@@ -4132,29 +4140,17 @@
       </c>
       <c r="V33" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="W33" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="X33" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="Y33" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="Z33" s="8">
-        <v>0.05</v>
       </c>
     </row>
     <row r="34" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>293</v>
@@ -4163,10 +4159,10 @@
         <v>300</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>418</v>
+        <v>322</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>317</v>
+        <v>385</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>12</v>
@@ -4204,28 +4200,40 @@
       <c r="V34" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="W34" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="X34" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="Y34" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="Z34" s="8">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="35" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>78</v>
+        <v>417</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>33</v>
+        <v>255</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>124</v>
+        <v>260</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>107</v>
+        <v>293</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>181</v>
+        <v>300</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>79</v>
+        <v>418</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>179</v>
+        <v>317</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>12</v>
@@ -4252,7 +4260,7 @@
         <v>12</v>
       </c>
       <c r="R35" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="S35" s="5" t="s">
         <v>13</v>
@@ -4266,25 +4274,25 @@
     </row>
     <row r="36" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>72</v>
+        <v>181</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>12</v>
@@ -4296,7 +4304,7 @@
         <v>13</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L36" s="5" t="s">
         <v>12</v>
@@ -4317,24 +4325,24 @@
         <v>13</v>
       </c>
       <c r="U36" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V36" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>72</v>
@@ -4376,7 +4384,7 @@
         <v>13</v>
       </c>
       <c r="U37" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V37" s="5" t="s">
         <v>13</v>
@@ -4384,25 +4392,25 @@
     </row>
     <row r="38" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>107</v>
+        <v>162</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>181</v>
+        <v>72</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>79</v>
+        <v>194</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>12</v>
@@ -4414,7 +4422,7 @@
         <v>13</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="L38" s="5" t="s">
         <v>12</v>
@@ -4426,7 +4434,10 @@
         <v>13</v>
       </c>
       <c r="Q38" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="R38" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="S38" s="5" t="s">
         <v>13</v>
@@ -4435,18 +4446,18 @@
         <v>13</v>
       </c>
       <c r="V38" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>107</v>
@@ -4496,13 +4507,13 @@
     </row>
     <row r="40" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>107</v>
@@ -4552,25 +4563,25 @@
     </row>
     <row r="41" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>410</v>
+        <v>113</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>258</v>
+        <v>35</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>386</v>
+        <v>79</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>387</v>
+        <v>183</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>12</v>
@@ -4582,7 +4593,7 @@
         <v>13</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="L41" s="5" t="s">
         <v>12</v>
@@ -4590,70 +4601,43 @@
       <c r="M41" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N41" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="O41" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="P41" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q41" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="R41" s="5" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="S41" s="5" t="s">
         <v>13</v>
       </c>
       <c r="U41" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V41" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="W41" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="X41" s="8">
-        <v>0.08</v>
-      </c>
-      <c r="Y41" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="Z41" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="AA41" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="AB41" s="8">
-        <v>0.02</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>136</v>
+        <v>410</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>36</v>
+        <v>258</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>72</v>
+        <v>198</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>85</v>
+        <v>386</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>174</v>
+        <v>387</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>12</v>
@@ -4662,10 +4646,10 @@
         <v>12</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L42" s="5" t="s">
         <v>12</v>
@@ -4673,8 +4657,14 @@
       <c r="M42" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="N42" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="O42" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="P42" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="Q42" s="5" t="s">
         <v>12</v>
@@ -4691,16 +4681,34 @@
       <c r="V42" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="W42" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="X42" s="8">
+        <v>0.08</v>
+      </c>
+      <c r="Y42" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="Z42" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="AA42" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="AB42" s="8">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="43" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>83</v>
+        <v>136</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>107</v>
@@ -4753,25 +4761,25 @@
     </row>
     <row r="44" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>421</v>
+        <v>83</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>259</v>
+        <v>36</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>185</v>
+        <v>72</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>388</v>
+        <v>85</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>389</v>
+        <v>174</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>12</v>
@@ -4780,7 +4788,7 @@
         <v>12</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K44" s="5" t="s">
         <v>13</v>
@@ -4798,57 +4806,39 @@
         <v>12</v>
       </c>
       <c r="R44" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="S44" s="5" t="s">
         <v>13</v>
       </c>
       <c r="U44" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V44" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="W44" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="X44" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="Y44" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="Z44" s="8">
-        <v>0.03</v>
-      </c>
-      <c r="AA44" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="AB44" s="8">
-        <v>0.05</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>299</v>
+        <v>158</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>300</v>
+        <v>185</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>336</v>
+        <v>388</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>337</v>
+        <v>389</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>12</v>
@@ -4881,54 +4871,54 @@
         <v>13</v>
       </c>
       <c r="U45" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V45" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W45" s="5" t="s">
-        <v>350</v>
+        <v>398</v>
       </c>
       <c r="X45" s="8">
-        <v>0.4</v>
+        <v>0.02</v>
       </c>
       <c r="Y45" s="5" t="s">
-        <v>353</v>
+        <v>399</v>
       </c>
       <c r="Z45" s="8">
-        <v>0.15</v>
+        <v>0.03</v>
       </c>
       <c r="AA45" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="AB45" s="5" t="s">
-        <v>382</v>
+        <v>246</v>
+      </c>
+      <c r="AB45" s="8">
+        <v>0.05</v>
       </c>
     </row>
     <row r="46" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>114</v>
+        <v>411</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>61</v>
+        <v>298</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>131</v>
+        <v>299</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>185</v>
+        <v>300</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>186</v>
+        <v>336</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>207</v>
+        <v>337</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I46" s="5" t="s">
         <v>12</v>
@@ -4949,42 +4939,63 @@
         <v>13</v>
       </c>
       <c r="Q46" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="R46" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="S46" s="5" t="s">
         <v>13</v>
       </c>
       <c r="U46" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V46" s="5" t="s">
         <v>13</v>
+      </c>
+      <c r="W46" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="X46" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="Y46" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="Z46" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="AA46" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="AB46" s="5" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="47" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E47" s="9" t="s">
-        <v>173</v>
+      <c r="E47" s="5" t="s">
+        <v>185</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I47" s="5" t="s">
         <v>12</v>
@@ -5019,13 +5030,13 @@
     </row>
     <row r="48" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>107</v>
@@ -5040,7 +5051,7 @@
         <v>208</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I48" s="5" t="s">
         <v>12</v>
@@ -5075,28 +5086,28 @@
     </row>
     <row r="49" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>412</v>
+        <v>115</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>261</v>
+        <v>11</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E49" s="5" t="s">
-        <v>300</v>
+      <c r="E49" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>308</v>
+        <v>187</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>390</v>
+        <v>208</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I49" s="5" t="s">
         <v>12</v>
@@ -5105,25 +5116,19 @@
         <v>13</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>456</v>
+        <v>13</v>
       </c>
       <c r="L49" s="5" t="s">
         <v>12</v>
       </c>
       <c r="M49" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N49" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="O49" s="5" t="s">
         <v>13</v>
       </c>
       <c r="Q49" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="R49" s="5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="S49" s="5" t="s">
         <v>13</v>
@@ -5133,41 +5138,29 @@
       </c>
       <c r="V49" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="W49" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="X49" s="8">
-        <v>0.04</v>
-      </c>
-      <c r="Y49" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="Z49" s="8">
-        <v>0.03</v>
       </c>
     </row>
     <row r="50" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>84</v>
+        <v>412</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>38</v>
+        <v>261</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>72</v>
+        <v>300</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>85</v>
+        <v>308</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>174</v>
+        <v>390</v>
       </c>
       <c r="H50" s="5" t="s">
         <v>12</v>
@@ -5176,16 +5169,19 @@
         <v>12</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>13</v>
+        <v>456</v>
       </c>
       <c r="L50" s="5" t="s">
         <v>12</v>
       </c>
       <c r="M50" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="N50" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="O50" s="5" t="s">
         <v>13</v>
@@ -5194,39 +5190,51 @@
         <v>12</v>
       </c>
       <c r="R50" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="S50" s="5" t="s">
         <v>13</v>
       </c>
       <c r="U50" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V50" s="5" t="s">
         <v>13</v>
+      </c>
+      <c r="W50" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="X50" s="8">
+        <v>0.04</v>
+      </c>
+      <c r="Y50" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="Z50" s="8">
+        <v>0.03</v>
       </c>
     </row>
     <row r="51" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>181</v>
+        <v>72</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>189</v>
+        <v>85</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>209</v>
+        <v>174</v>
       </c>
       <c r="H51" s="5" t="s">
         <v>12</v>
@@ -5235,7 +5243,7 @@
         <v>12</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K51" s="5" t="s">
         <v>13</v>
@@ -5244,10 +5252,7 @@
         <v>12</v>
       </c>
       <c r="M51" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N51" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O51" s="5" t="s">
         <v>13</v>
@@ -5256,7 +5261,7 @@
         <v>12</v>
       </c>
       <c r="R51" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="S51" s="5" t="s">
         <v>13</v>
@@ -5270,25 +5275,25 @@
     </row>
     <row r="52" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>419</v>
+        <v>116</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>297</v>
+        <v>39</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>311</v>
+        <v>181</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>334</v>
+        <v>189</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>335</v>
+        <v>209</v>
       </c>
       <c r="H52" s="5" t="s">
         <v>12</v>
@@ -5309,7 +5314,7 @@
         <v>12</v>
       </c>
       <c r="N52" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O52" s="5" t="s">
         <v>13</v>
@@ -5329,31 +5334,13 @@
       <c r="V52" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="W52" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="X52" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="Y52" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="Z52" s="8">
-        <v>0.03</v>
-      </c>
-      <c r="AA52" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="AB52" s="5" t="s">
-        <v>382</v>
-      </c>
     </row>
     <row r="53" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>117</v>
+        <v>419</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>62</v>
+        <v>297</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>125</v>
@@ -5362,16 +5349,16 @@
         <v>107</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>72</v>
+        <v>311</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>190</v>
+        <v>334</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>210</v>
+        <v>335</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I53" s="5" t="s">
         <v>12</v>
@@ -5386,33 +5373,57 @@
         <v>12</v>
       </c>
       <c r="M53" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="N53" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="O53" s="5" t="s">
         <v>13</v>
       </c>
       <c r="Q53" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="R53" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="S53" s="5" t="s">
         <v>13</v>
       </c>
       <c r="U53" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V53" s="5" t="s">
         <v>13</v>
+      </c>
+      <c r="W53" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="X53" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="Y53" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="Z53" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="AA53" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="AB53" s="5" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="54" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>420</v>
+        <v>117</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>262</v>
+        <v>62</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>263</v>
+        <v>125</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>107</v>
@@ -5421,13 +5432,13 @@
         <v>72</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I54" s="5" t="s">
         <v>12</v>
@@ -5442,72 +5453,45 @@
         <v>12</v>
       </c>
       <c r="M54" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N54" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="O54" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="P54" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q54" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="R54" s="5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="S54" s="5" t="s">
         <v>13</v>
       </c>
       <c r="U54" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V54" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="W54" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="X54" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="Y54" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="Z54" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="AA54" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="AB54" s="8">
-        <v>0.06</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>86</v>
+        <v>420</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>40</v>
+        <v>262</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>125</v>
+        <v>263</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E55" s="9" t="s">
-        <v>173</v>
+      <c r="E55" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>12</v>
@@ -5525,30 +5509,57 @@
         <v>12</v>
       </c>
       <c r="M55" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="N55" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="O55" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="P55" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="Q55" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="R55" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="S55" s="5" t="s">
         <v>13</v>
       </c>
       <c r="U55" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V55" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="W55" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="X55" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="Y55" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="Z55" s="8">
+        <v>0.09</v>
+      </c>
+      <c r="AA55" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="AB55" s="8">
+        <v>0.06</v>
       </c>
     </row>
     <row r="56" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>125</v>
@@ -5556,14 +5567,14 @@
       <c r="D56" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E56" s="5" t="s">
-        <v>181</v>
+      <c r="E56" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>179</v>
+        <v>208</v>
       </c>
       <c r="H56" s="5" t="s">
         <v>12</v>
@@ -5575,7 +5586,7 @@
         <v>13</v>
       </c>
       <c r="K56" s="5" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="L56" s="5" t="s">
         <v>12</v>
@@ -5587,10 +5598,7 @@
         <v>13</v>
       </c>
       <c r="Q56" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="R56" s="5" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="S56" s="5" t="s">
         <v>13</v>
@@ -5599,15 +5607,15 @@
         <v>13</v>
       </c>
       <c r="V56" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>125</v>
@@ -5616,13 +5624,13 @@
         <v>107</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>72</v>
+        <v>181</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>180</v>
+        <v>79</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="H57" s="5" t="s">
         <v>12</v>
@@ -5634,7 +5642,7 @@
         <v>13</v>
       </c>
       <c r="K57" s="5" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="L57" s="5" t="s">
         <v>12</v>
@@ -5646,7 +5654,10 @@
         <v>13</v>
       </c>
       <c r="Q57" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="R57" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="S57" s="5" t="s">
         <v>13</v>
@@ -5655,18 +5666,18 @@
         <v>13</v>
       </c>
       <c r="V57" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>42</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>107</v>
@@ -5716,25 +5727,25 @@
     </row>
     <row r="59" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>192</v>
+        <v>72</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="H59" s="5" t="s">
         <v>12</v>
@@ -5746,25 +5757,19 @@
         <v>13</v>
       </c>
       <c r="K59" s="5" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="L59" s="5" t="s">
         <v>12</v>
       </c>
       <c r="M59" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N59" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="O59" s="5" t="s">
         <v>13</v>
       </c>
       <c r="Q59" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="R59" s="5" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="S59" s="5" t="s">
         <v>13</v>
@@ -5773,30 +5778,30 @@
         <v>13</v>
       </c>
       <c r="V59" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>422</v>
+        <v>90</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>294</v>
+        <v>43</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>311</v>
+        <v>192</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>312</v>
+        <v>193</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>330</v>
+        <v>211</v>
       </c>
       <c r="H60" s="5" t="s">
         <v>12</v>
@@ -5808,7 +5813,7 @@
         <v>13</v>
       </c>
       <c r="K60" s="5" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="L60" s="5" t="s">
         <v>12</v>
@@ -5817,7 +5822,7 @@
         <v>12</v>
       </c>
       <c r="N60" s="5" t="s">
-        <v>402</v>
+        <v>19</v>
       </c>
       <c r="O60" s="5" t="s">
         <v>13</v>
@@ -5826,7 +5831,7 @@
         <v>12</v>
       </c>
       <c r="R60" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="S60" s="5" t="s">
         <v>13</v>
@@ -5835,42 +5840,30 @@
         <v>13</v>
       </c>
       <c r="V60" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="W60" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="X60" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="Y60" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="Z60" s="8">
-        <v>0.02</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>72</v>
+        <v>311</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>391</v>
+        <v>330</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>12</v>
@@ -5888,7 +5881,10 @@
         <v>12</v>
       </c>
       <c r="M61" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="N61" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="O61" s="5" t="s">
         <v>13</v>
@@ -5897,45 +5893,39 @@
         <v>12</v>
       </c>
       <c r="R61" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="S61" s="5" t="s">
         <v>13</v>
       </c>
       <c r="U61" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V61" s="5" t="s">
         <v>13</v>
       </c>
       <c r="W61" s="5" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="X61" s="8">
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
       <c r="Y61" s="5" t="s">
-        <v>364</v>
+        <v>246</v>
       </c>
       <c r="Z61" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AA61" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="AB61" s="8">
         <v>0.02</v>
       </c>
     </row>
     <row r="62" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>221</v>
+        <v>423</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>44</v>
+        <v>264</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>107</v>
@@ -5944,10 +5934,10 @@
         <v>72</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>180</v>
+        <v>307</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>191</v>
+        <v>391</v>
       </c>
       <c r="H62" s="5" t="s">
         <v>12</v>
@@ -5974,21 +5964,39 @@
         <v>12</v>
       </c>
       <c r="R62" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="S62" s="5" t="s">
         <v>13</v>
       </c>
       <c r="U62" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V62" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="W62" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="X62" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="Y62" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="Z62" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AA62" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="AB62" s="8">
+        <v>0.02</v>
       </c>
     </row>
     <row r="63" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>44</v>
@@ -5997,7 +6005,7 @@
         <v>127</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>72</v>
@@ -6009,7 +6017,7 @@
         <v>191</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I63" s="5" t="s">
         <v>12</v>
@@ -6030,7 +6038,10 @@
         <v>13</v>
       </c>
       <c r="Q63" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="R63" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="S63" s="5" t="s">
         <v>13</v>
@@ -6044,28 +6055,28 @@
     </row>
     <row r="64" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>424</v>
+        <v>222</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>265</v>
+        <v>44</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>293</v>
+        <v>108</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>300</v>
+        <v>72</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>301</v>
+        <v>180</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>302</v>
+        <v>191</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I64" s="5" t="s">
         <v>12</v>
@@ -6074,7 +6085,7 @@
         <v>13</v>
       </c>
       <c r="K64" s="5" t="s">
-        <v>456</v>
+        <v>13</v>
       </c>
       <c r="L64" s="5" t="s">
         <v>12</v>
@@ -6086,10 +6097,7 @@
         <v>13</v>
       </c>
       <c r="Q64" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="R64" s="5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="S64" s="5" t="s">
         <v>13</v>
@@ -6099,35 +6107,17 @@
       </c>
       <c r="V64" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="W64" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="X64" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="Y64" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="Z64" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="AA64" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="AB64" s="8">
-        <v>0.02</v>
       </c>
     </row>
     <row r="65" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>265</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>266</v>
+        <v>118</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>293</v>
@@ -6198,25 +6188,25 @@
     </row>
     <row r="66" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
-        <v>91</v>
+        <v>425</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>45</v>
+        <v>265</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>128</v>
+        <v>266</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>107</v>
+        <v>293</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>192</v>
+        <v>300</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>193</v>
+        <v>301</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>213</v>
+        <v>302</v>
       </c>
       <c r="H66" s="5" t="s">
         <v>12</v>
@@ -6228,7 +6218,7 @@
         <v>13</v>
       </c>
       <c r="K66" s="5" t="s">
-        <v>4</v>
+        <v>456</v>
       </c>
       <c r="L66" s="5" t="s">
         <v>12</v>
@@ -6240,7 +6230,10 @@
         <v>13</v>
       </c>
       <c r="Q66" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="R66" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="S66" s="5" t="s">
         <v>13</v>
@@ -6249,51 +6242,66 @@
         <v>13</v>
       </c>
       <c r="V66" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="W66" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="X66" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="Y66" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="Z66" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="AA66" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="AB66" s="8">
+        <v>0.02</v>
       </c>
     </row>
     <row r="67" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>72</v>
+        <v>192</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I67" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K67" s="5" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="L67" s="5" t="s">
         <v>12</v>
       </c>
       <c r="M67" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N67" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O67" s="5" t="s">
         <v>13</v>
@@ -6313,25 +6321,25 @@
     </row>
     <row r="68" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>165</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>173</v>
+        <v>107</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="H68" s="5" t="s">
         <v>13</v>
@@ -6340,7 +6348,7 @@
         <v>12</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K68" s="5" t="s">
         <v>13</v>
@@ -6349,7 +6357,10 @@
         <v>12</v>
       </c>
       <c r="M68" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="N68" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="O68" s="5" t="s">
         <v>13</v>
@@ -6369,16 +6380,16 @@
     </row>
     <row r="69" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E69" s="9" t="s">
         <v>173</v>
@@ -6390,7 +6401,7 @@
         <v>176</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I69" s="5" t="s">
         <v>12</v>
@@ -6425,13 +6436,13 @@
     </row>
     <row r="70" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>123</v>
+        <v>166</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>107</v>
@@ -6440,10 +6451,10 @@
         <v>173</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>214</v>
+        <v>176</v>
       </c>
       <c r="H70" s="5" t="s">
         <v>12</v>
@@ -6455,7 +6466,7 @@
         <v>13</v>
       </c>
       <c r="K70" s="5" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="L70" s="5" t="s">
         <v>12</v>
@@ -6476,36 +6487,30 @@
         <v>13</v>
       </c>
       <c r="V70" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="W70" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="X70" s="8">
-        <v>0.05</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
-        <v>426</v>
+        <v>92</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>267</v>
+        <v>47</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>167</v>
+        <v>123</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E71" s="5" t="s">
-        <v>72</v>
+      <c r="E71" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>303</v>
+        <v>187</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>304</v>
+        <v>214</v>
       </c>
       <c r="H71" s="5" t="s">
         <v>12</v>
@@ -6517,7 +6522,7 @@
         <v>13</v>
       </c>
       <c r="K71" s="5" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="L71" s="5" t="s">
         <v>12</v>
@@ -6529,48 +6534,33 @@
         <v>13</v>
       </c>
       <c r="Q71" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="R71" s="5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="S71" s="5" t="s">
         <v>13</v>
       </c>
       <c r="U71" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V71" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W71" s="5" t="s">
-        <v>341</v>
+        <v>249</v>
       </c>
       <c r="X71" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="Y71" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="Z71" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="AA71" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="AB71" s="5" t="s">
-        <v>358</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="72" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>267</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>123</v>
+        <v>167</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>107</v>
@@ -6641,25 +6631,25 @@
     </row>
     <row r="73" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>181</v>
+        <v>72</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>79</v>
+        <v>303</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H73" s="5" t="s">
         <v>12</v>
@@ -6677,10 +6667,7 @@
         <v>12</v>
       </c>
       <c r="M73" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N73" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="O73" s="5" t="s">
         <v>13</v>
@@ -6689,31 +6676,31 @@
         <v>12</v>
       </c>
       <c r="R73" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S73" s="5" t="s">
         <v>13</v>
       </c>
       <c r="U73" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V73" s="5" t="s">
         <v>13</v>
       </c>
       <c r="W73" s="5" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="X73" s="8">
         <v>0.1</v>
       </c>
       <c r="Y73" s="5" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="Z73" s="8">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="AA73" s="5" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="AB73" s="5" t="s">
         <v>358</v>
@@ -6721,10 +6708,10 @@
     </row>
     <row r="74" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
-        <v>93</v>
+        <v>428</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>48</v>
+        <v>268</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>153</v>
@@ -6733,13 +6720,13 @@
         <v>107</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>212</v>
+        <v>305</v>
       </c>
       <c r="H74" s="5" t="s">
         <v>12</v>
@@ -6751,13 +6738,16 @@
         <v>13</v>
       </c>
       <c r="K74" s="5" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="L74" s="5" t="s">
         <v>12</v>
       </c>
       <c r="M74" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="N74" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="O74" s="5" t="s">
         <v>13</v>
@@ -6775,15 +6765,33 @@
         <v>13</v>
       </c>
       <c r="V74" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="W74" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="X74" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="Y74" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="Z74" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AA74" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="AB74" s="5" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="75" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>145</v>
+        <v>48</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>153</v>
@@ -6810,7 +6818,7 @@
         <v>13</v>
       </c>
       <c r="K75" s="5" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="L75" s="5" t="s">
         <v>12</v>
@@ -6822,7 +6830,10 @@
         <v>13</v>
       </c>
       <c r="Q75" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="R75" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="S75" s="5" t="s">
         <v>13</v>
@@ -6831,30 +6842,30 @@
         <v>13</v>
       </c>
       <c r="V75" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="E76" s="9" t="s">
-        <v>173</v>
+        <v>107</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>192</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="H76" s="5" t="s">
         <v>12</v>
@@ -6866,7 +6877,7 @@
         <v>13</v>
       </c>
       <c r="K76" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L76" s="5" t="s">
         <v>12</v>
@@ -6892,10 +6903,10 @@
     </row>
     <row r="77" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
-        <v>223</v>
+        <v>144</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>157</v>
@@ -6948,25 +6959,25 @@
     </row>
     <row r="78" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
-        <v>429</v>
+        <v>223</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>269</v>
+        <v>163</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>181</v>
+        <v>220</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>306</v>
+        <v>188</v>
       </c>
       <c r="H78" s="5" t="s">
         <v>12</v>
@@ -6978,7 +6989,7 @@
         <v>13</v>
       </c>
       <c r="K78" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L78" s="5" t="s">
         <v>12</v>
@@ -6990,10 +7001,7 @@
         <v>13</v>
       </c>
       <c r="Q78" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="R78" s="5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="S78" s="5" t="s">
         <v>13</v>
@@ -7002,48 +7010,30 @@
         <v>13</v>
       </c>
       <c r="V78" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="W78" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="X78" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="Y78" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="Z78" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="AA78" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="AB78" s="8">
-        <v>0.02</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
-        <v>94</v>
+        <v>429</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>49</v>
+        <v>269</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D79" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D79" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>72</v>
+        <v>181</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>204</v>
+        <v>306</v>
       </c>
       <c r="H79" s="5" t="s">
         <v>12</v>
@@ -7055,7 +7045,7 @@
         <v>13</v>
       </c>
       <c r="K79" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L79" s="5" t="s">
         <v>12</v>
@@ -7067,7 +7057,10 @@
         <v>13</v>
       </c>
       <c r="Q79" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="R79" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="S79" s="5" t="s">
         <v>13</v>
@@ -7076,20 +7069,38 @@
         <v>13</v>
       </c>
       <c r="V79" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="W79" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="X79" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="Y79" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="Z79" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="AA79" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="AB79" s="8">
+        <v>0.02</v>
       </c>
     </row>
     <row r="80" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="D80" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D80" s="10" t="s">
         <v>107</v>
       </c>
       <c r="E80" s="5" t="s">
@@ -7137,13 +7148,13 @@
     </row>
     <row r="81" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>107</v>
@@ -7155,7 +7166,7 @@
         <v>194</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H81" s="5" t="s">
         <v>12</v>
@@ -7193,13 +7204,13 @@
     </row>
     <row r="82" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>50</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>107</v>
@@ -7211,7 +7222,7 @@
         <v>194</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H82" s="5" t="s">
         <v>12</v>
@@ -7249,25 +7260,25 @@
     </row>
     <row r="83" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
-        <v>430</v>
+        <v>97</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>50</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>292</v>
+        <v>107</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>72</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>307</v>
+        <v>194</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>50</v>
+        <v>206</v>
       </c>
       <c r="H83" s="5" t="s">
         <v>12</v>
@@ -7285,19 +7296,13 @@
         <v>12</v>
       </c>
       <c r="M83" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N83" s="5" t="s">
-        <v>403</v>
+        <v>13</v>
       </c>
       <c r="O83" s="5" t="s">
         <v>13</v>
       </c>
       <c r="Q83" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="R83" s="5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="S83" s="5" t="s">
         <v>13</v>
@@ -7307,47 +7312,29 @@
       </c>
       <c r="V83" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="W83" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="X83" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="Y83" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="Z83" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="AA83" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="AB83" s="8">
-        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="84" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
-        <v>224</v>
+        <v>430</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>107</v>
+        <v>292</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>72</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>195</v>
+        <v>307</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>215</v>
+        <v>50</v>
       </c>
       <c r="H84" s="5" t="s">
         <v>12</v>
@@ -7359,19 +7346,25 @@
         <v>13</v>
       </c>
       <c r="K84" s="5" t="s">
-        <v>457</v>
+        <v>14</v>
       </c>
       <c r="L84" s="5" t="s">
         <v>12</v>
       </c>
       <c r="M84" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="N84" s="5" t="s">
+        <v>403</v>
       </c>
       <c r="O84" s="5" t="s">
         <v>13</v>
       </c>
       <c r="Q84" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="R84" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="S84" s="5" t="s">
         <v>13</v>
@@ -7381,17 +7374,35 @@
       </c>
       <c r="V84" s="5" t="s">
         <v>13</v>
+      </c>
+      <c r="W84" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="X84" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="Y84" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="Z84" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="AA84" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="AB84" s="8">
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="85" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>107</v>
@@ -7441,25 +7452,25 @@
     </row>
     <row r="86" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
-        <v>98</v>
+        <v>225</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>169</v>
+        <v>118</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>197</v>
+        <v>72</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H86" s="5" t="s">
         <v>12</v>
@@ -7471,7 +7482,7 @@
         <v>13</v>
       </c>
       <c r="K86" s="5" t="s">
-        <v>17</v>
+        <v>457</v>
       </c>
       <c r="L86" s="5" t="s">
         <v>12</v>
@@ -7483,10 +7494,7 @@
         <v>13</v>
       </c>
       <c r="Q86" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="R86" s="5" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="S86" s="5" t="s">
         <v>13</v>
@@ -7495,18 +7503,18 @@
         <v>13</v>
       </c>
       <c r="V86" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>107</v>
@@ -7559,25 +7567,25 @@
     </row>
     <row r="88" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
-        <v>431</v>
+        <v>99</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>270</v>
+        <v>53</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>125</v>
+        <v>168</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>300</v>
+        <v>197</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>308</v>
+        <v>196</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>309</v>
+        <v>216</v>
       </c>
       <c r="H88" s="5" t="s">
         <v>12</v>
@@ -7589,16 +7597,13 @@
         <v>13</v>
       </c>
       <c r="K88" s="5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L88" s="5" t="s">
         <v>12</v>
       </c>
       <c r="M88" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N88" s="11" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="O88" s="5" t="s">
         <v>13</v>
@@ -7607,7 +7612,7 @@
         <v>12</v>
       </c>
       <c r="R88" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="S88" s="5" t="s">
         <v>13</v>
@@ -7616,42 +7621,30 @@
         <v>13</v>
       </c>
       <c r="V88" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="W88" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="X88" s="8">
-        <v>0.03</v>
-      </c>
-      <c r="Y88" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="Z88" s="8">
-        <v>0.02</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
-        <v>141</v>
+        <v>431</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>54</v>
+        <v>270</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="D89" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>72</v>
+        <v>300</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>85</v>
+        <v>308</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>174</v>
+        <v>309</v>
       </c>
       <c r="H89" s="5" t="s">
         <v>12</v>
@@ -7660,7 +7653,7 @@
         <v>12</v>
       </c>
       <c r="J89" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K89" s="5" t="s">
         <v>13</v>
@@ -7669,7 +7662,10 @@
         <v>12</v>
       </c>
       <c r="M89" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="N89" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="O89" s="5" t="s">
         <v>13</v>
@@ -7678,27 +7674,39 @@
         <v>12</v>
       </c>
       <c r="R89" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="S89" s="5" t="s">
         <v>13</v>
       </c>
       <c r="U89" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V89" s="5" t="s">
         <v>13</v>
+      </c>
+      <c r="W89" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="X89" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="Y89" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="Z89" s="8">
+        <v>0.02</v>
       </c>
     </row>
     <row r="90" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>54</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>107</v>
@@ -7751,25 +7759,25 @@
     </row>
     <row r="91" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="D91" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>181</v>
+        <v>72</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H91" s="5" t="s">
         <v>12</v>
@@ -7778,10 +7786,10 @@
         <v>12</v>
       </c>
       <c r="J91" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K91" s="5" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="L91" s="5" t="s">
         <v>12</v>
@@ -7802,33 +7810,33 @@
         <v>13</v>
       </c>
       <c r="U91" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V91" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="E92" s="9" t="s">
-        <v>173</v>
+        <v>107</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>217</v>
+        <v>178</v>
       </c>
       <c r="H92" s="5" t="s">
         <v>12</v>
@@ -7852,7 +7860,10 @@
         <v>13</v>
       </c>
       <c r="Q92" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="R92" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="S92" s="5" t="s">
         <v>13</v>
@@ -7861,21 +7872,21 @@
         <v>13</v>
       </c>
       <c r="V92" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>107</v>
+        <v>162</v>
       </c>
       <c r="E93" s="9" t="s">
         <v>173</v>
@@ -7902,22 +7913,13 @@
         <v>12</v>
       </c>
       <c r="M93" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N93" s="5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="O93" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="P93" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q93" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="R93" s="5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="S93" s="5" t="s">
         <v>13</v>
@@ -7926,48 +7928,30 @@
         <v>13</v>
       </c>
       <c r="V93" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="W93" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="X93" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="Y93" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="Z93" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="AA93" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="AB93" s="8">
-        <v>0.05</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
-        <v>432</v>
+        <v>103</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>271</v>
+        <v>56</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>272</v>
+        <v>160</v>
       </c>
       <c r="D94" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E94" s="5" t="s">
-        <v>181</v>
+      <c r="E94" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>310</v>
+        <v>217</v>
       </c>
       <c r="H94" s="5" t="s">
         <v>12</v>
@@ -7979,7 +7963,7 @@
         <v>13</v>
       </c>
       <c r="K94" s="5" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="L94" s="5" t="s">
         <v>12</v>
@@ -7988,10 +7972,13 @@
         <v>12</v>
       </c>
       <c r="N94" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O94" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="P94" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="O94" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="Q94" s="5" t="s">
         <v>12</v>
@@ -8003,45 +7990,51 @@
         <v>13</v>
       </c>
       <c r="U94" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V94" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W94" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="X94" s="8">
-        <v>0.1</v>
+        <v>245</v>
+      </c>
+      <c r="X94" s="12" t="s">
+        <v>248</v>
       </c>
       <c r="Y94" s="5" t="s">
-        <v>354</v>
+        <v>246</v>
       </c>
       <c r="Z94" s="8">
-        <v>0.03</v>
+        <v>0.2</v>
+      </c>
+      <c r="AA94" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB94" s="8">
+        <v>0.05</v>
       </c>
     </row>
     <row r="95" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>296</v>
+        <v>271</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>125</v>
+        <v>272</v>
       </c>
       <c r="D95" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>72</v>
+        <v>181</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>332</v>
+        <v>79</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>333</v>
+        <v>310</v>
       </c>
       <c r="H95" s="5" t="s">
         <v>12</v>
@@ -8050,7 +8043,7 @@
         <v>12</v>
       </c>
       <c r="J95" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K95" s="5" t="s">
         <v>13</v>
@@ -8059,7 +8052,10 @@
         <v>12</v>
       </c>
       <c r="M95" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="N95" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="O95" s="5" t="s">
         <v>13</v>
@@ -8068,7 +8064,7 @@
         <v>12</v>
       </c>
       <c r="R95" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S95" s="5" t="s">
         <v>13</v>
@@ -8080,45 +8076,39 @@
         <v>13</v>
       </c>
       <c r="W95" s="5" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="X95" s="8">
         <v>0.1</v>
       </c>
       <c r="Y95" s="5" t="s">
-        <v>380</v>
+        <v>354</v>
       </c>
       <c r="Z95" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="AA95" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="AB95" s="8">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="96" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>273</v>
+        <v>296</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>181</v>
+        <v>72</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>79</v>
+        <v>332</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>182</v>
+        <v>333</v>
       </c>
       <c r="H96" s="5" t="s">
         <v>12</v>
@@ -8127,7 +8117,7 @@
         <v>12</v>
       </c>
       <c r="J96" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K96" s="5" t="s">
         <v>13</v>
@@ -8151,51 +8141,51 @@
         <v>13</v>
       </c>
       <c r="U96" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V96" s="5" t="s">
         <v>13</v>
       </c>
       <c r="W96" s="5" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="X96" s="8">
         <v>0.1</v>
       </c>
       <c r="Y96" s="5" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="Z96" s="8">
         <v>0.1</v>
       </c>
       <c r="AA96" s="5" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="AB96" s="8">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="97" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>127</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>311</v>
+        <v>181</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>312</v>
+        <v>79</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>313</v>
+        <v>182</v>
       </c>
       <c r="H97" s="5" t="s">
         <v>12</v>
@@ -8222,57 +8212,57 @@
         <v>12</v>
       </c>
       <c r="R97" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S97" s="5" t="s">
         <v>13</v>
       </c>
       <c r="U97" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V97" s="5" t="s">
         <v>13</v>
       </c>
       <c r="W97" s="5" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="X97" s="8">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="Y97" s="5" t="s">
-        <v>246</v>
+        <v>344</v>
       </c>
       <c r="Z97" s="8">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="AA97" s="5" t="s">
-        <v>247</v>
+        <v>349</v>
       </c>
       <c r="AB97" s="8">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="98" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>198</v>
+        <v>311</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>199</v>
+        <v>312</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>251</v>
+        <v>313</v>
       </c>
       <c r="H98" s="5" t="s">
         <v>12</v>
@@ -8290,10 +8280,7 @@
         <v>12</v>
       </c>
       <c r="M98" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N98" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="O98" s="5" t="s">
         <v>13</v>
@@ -8308,45 +8295,51 @@
         <v>13</v>
       </c>
       <c r="U98" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V98" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W98" s="5" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="X98" s="8">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="Y98" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="Z98" s="5" t="s">
-        <v>358</v>
+        <v>246</v>
+      </c>
+      <c r="Z98" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="AA98" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB98" s="8">
+        <v>0.02</v>
       </c>
     </row>
     <row r="99" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="D99" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>72</v>
+        <v>198</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>191</v>
+        <v>251</v>
       </c>
       <c r="H99" s="5" t="s">
         <v>12</v>
@@ -8376,13 +8369,13 @@
         <v>12</v>
       </c>
       <c r="R99" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="S99" s="5" t="s">
         <v>13</v>
       </c>
       <c r="U99" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V99" s="5" t="s">
         <v>12</v>
@@ -8391,30 +8384,24 @@
         <v>356</v>
       </c>
       <c r="X99" s="8">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="Y99" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="Z99" s="8">
-        <v>0.15</v>
-      </c>
-      <c r="AA99" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="AB99" s="8">
-        <v>0.1</v>
+        <v>357</v>
+      </c>
+      <c r="Z99" s="5" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="100" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="D100" s="5" t="s">
         <v>107</v>
@@ -8423,10 +8410,10 @@
         <v>72</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>314</v>
+        <v>191</v>
       </c>
       <c r="H100" s="5" t="s">
         <v>12</v>
@@ -8447,7 +8434,7 @@
         <v>12</v>
       </c>
       <c r="N100" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O100" s="5" t="s">
         <v>13</v>
@@ -8456,7 +8443,7 @@
         <v>12</v>
       </c>
       <c r="R100" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="S100" s="5" t="s">
         <v>13</v>
@@ -8465,36 +8452,36 @@
         <v>12</v>
       </c>
       <c r="V100" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W100" s="5" t="s">
         <v>356</v>
       </c>
       <c r="X100" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="Y100" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="Z100" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="AA100" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="AB100" s="8">
         <v>0.1</v>
-      </c>
-      <c r="Y100" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="Z100" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AA100" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="AB100" s="8">
-        <v>0.03</v>
       </c>
     </row>
     <row r="101" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>276</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="D101" s="5" t="s">
         <v>107</v>
@@ -8568,25 +8555,25 @@
     </row>
     <row r="102" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>123</v>
+        <v>167</v>
       </c>
       <c r="D102" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>315</v>
+        <v>72</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>316</v>
+        <v>195</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H102" s="5" t="s">
         <v>12</v>
@@ -8604,7 +8591,10 @@
         <v>12</v>
       </c>
       <c r="M102" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="N102" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="O102" s="5" t="s">
         <v>13</v>
@@ -8625,33 +8615,33 @@
         <v>13</v>
       </c>
       <c r="W102" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="X102" s="5" t="s">
-        <v>361</v>
+        <v>356</v>
+      </c>
+      <c r="X102" s="8">
+        <v>0.1</v>
       </c>
       <c r="Y102" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="Z102" s="5" t="s">
-        <v>361</v>
+        <v>350</v>
+      </c>
+      <c r="Z102" s="8">
+        <v>0.05</v>
       </c>
       <c r="AA102" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="AB102" s="5" t="s">
-        <v>361</v>
+        <v>348</v>
+      </c>
+      <c r="AB102" s="8">
+        <v>0.03</v>
       </c>
     </row>
     <row r="103" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>277</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D103" s="5" t="s">
         <v>107</v>
@@ -8722,34 +8712,34 @@
     </row>
     <row r="104" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
-        <v>170</v>
+        <v>441</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>64</v>
+        <v>277</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="D104" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>72</v>
+        <v>315</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>194</v>
+        <v>316</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>203</v>
+        <v>317</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I104" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J104" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K104" s="5" t="s">
         <v>13</v>
@@ -8764,21 +8754,42 @@
         <v>13</v>
       </c>
       <c r="Q104" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="R104" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="S104" s="5" t="s">
         <v>13</v>
       </c>
       <c r="U104" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V104" s="5" t="s">
         <v>13</v>
+      </c>
+      <c r="W104" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="X104" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y104" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="Z104" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="AA104" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="AB104" s="5" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="105" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>64</v>
@@ -8787,7 +8798,7 @@
         <v>158</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E105" s="5" t="s">
         <v>72</v>
@@ -8799,13 +8810,13 @@
         <v>203</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I105" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J105" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K105" s="5" t="s">
         <v>13</v>
@@ -8834,25 +8845,25 @@
     </row>
     <row r="106" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
-        <v>442</v>
+        <v>171</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>278</v>
+        <v>64</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>272</v>
+        <v>158</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E106" s="5" t="s">
         <v>72</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>307</v>
+        <v>194</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>318</v>
+        <v>203</v>
       </c>
       <c r="H106" s="5" t="s">
         <v>12</v>
@@ -8870,69 +8881,45 @@
         <v>12</v>
       </c>
       <c r="M106" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N106" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="O106" s="5" t="s">
         <v>13</v>
       </c>
       <c r="Q106" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="R106" s="5" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="S106" s="5" t="s">
         <v>13</v>
       </c>
       <c r="U106" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V106" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="W106" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="X106" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="Y106" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="Z106" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="AA106" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="AB106" s="8">
-        <v>0.05</v>
       </c>
     </row>
     <row r="107" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>128</v>
+        <v>272</v>
       </c>
       <c r="D107" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>181</v>
+        <v>72</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H107" s="5" t="s">
         <v>12</v>
@@ -8950,7 +8937,10 @@
         <v>12</v>
       </c>
       <c r="M107" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="N107" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="O107" s="5" t="s">
         <v>13</v>
@@ -8959,57 +8949,57 @@
         <v>12</v>
       </c>
       <c r="R107" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="S107" s="5" t="s">
         <v>13</v>
       </c>
       <c r="U107" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V107" s="5" t="s">
         <v>13</v>
       </c>
       <c r="W107" s="5" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="X107" s="8">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="Y107" s="5" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="Z107" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="AA107" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="AB107" s="8">
         <v>0.05</v>
-      </c>
-      <c r="AA107" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="AB107" s="5" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="108" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D108" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>72</v>
+        <v>181</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H108" s="5" t="s">
         <v>12</v>
@@ -9021,7 +9011,7 @@
         <v>13</v>
       </c>
       <c r="K108" s="5" t="s">
-        <v>457</v>
+        <v>13</v>
       </c>
       <c r="L108" s="5" t="s">
         <v>12</v>
@@ -9042,39 +9032,39 @@
         <v>13</v>
       </c>
       <c r="U108" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V108" s="5" t="s">
         <v>13</v>
       </c>
       <c r="W108" s="5" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="X108" s="8">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="Y108" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="Z108" s="8">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="AA108" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="AB108" s="8">
-        <v>0.05</v>
+        <v>368</v>
+      </c>
+      <c r="AB108" s="5" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="109" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B109" s="5" t="s">
         <v>280</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>107</v>
@@ -9098,7 +9088,7 @@
         <v>13</v>
       </c>
       <c r="K109" s="5" t="s">
-        <v>13</v>
+        <v>457</v>
       </c>
       <c r="L109" s="5" t="s">
         <v>12</v>
@@ -9145,13 +9135,13 @@
     </row>
     <row r="110" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>107</v>
@@ -9181,10 +9171,7 @@
         <v>12</v>
       </c>
       <c r="M110" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N110" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="O110" s="5" t="s">
         <v>13</v>
@@ -9205,33 +9192,33 @@
         <v>13</v>
       </c>
       <c r="W110" s="5" t="s">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="X110" s="8">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="Y110" s="5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="Z110" s="8">
         <v>0.1</v>
       </c>
       <c r="AA110" s="5" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="AB110" s="8">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="111" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B111" s="5" t="s">
         <v>281</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>282</v>
+        <v>167</v>
       </c>
       <c r="D111" s="5" t="s">
         <v>107</v>
@@ -9305,25 +9292,25 @@
     </row>
     <row r="112" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>293</v>
+        <v>107</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>300</v>
+        <v>72</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H112" s="5" t="s">
         <v>12</v>
@@ -9335,13 +9322,16 @@
         <v>13</v>
       </c>
       <c r="K112" s="5" t="s">
-        <v>456</v>
+        <v>13</v>
       </c>
       <c r="L112" s="5" t="s">
         <v>12</v>
       </c>
       <c r="M112" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="N112" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="O112" s="5" t="s">
         <v>13</v>
@@ -9356,45 +9346,51 @@
         <v>13</v>
       </c>
       <c r="U112" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V112" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W112" s="5" t="s">
-        <v>340</v>
+        <v>370</v>
       </c>
       <c r="X112" s="8">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="Y112" s="5" t="s">
-        <v>345</v>
+        <v>371</v>
       </c>
       <c r="Z112" s="8">
-        <v>0.02</v>
+        <v>0.1</v>
+      </c>
+      <c r="AA112" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="AB112" s="8">
+        <v>0.08</v>
       </c>
     </row>
     <row r="113" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
-        <v>142</v>
+        <v>448</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>57</v>
+        <v>283</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>126</v>
+        <v>284</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>107</v>
+        <v>293</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>72</v>
+        <v>300</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>180</v>
+        <v>322</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>191</v>
+        <v>323</v>
       </c>
       <c r="H113" s="5" t="s">
         <v>12</v>
@@ -9406,7 +9402,7 @@
         <v>13</v>
       </c>
       <c r="K113" s="5" t="s">
-        <v>13</v>
+        <v>456</v>
       </c>
       <c r="L113" s="5" t="s">
         <v>12</v>
@@ -9432,16 +9428,28 @@
       <c r="V113" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="W113" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="X113" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="Y113" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="Z113" s="8">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="114" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="B114" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="D114" s="5" t="s">
         <v>107</v>
@@ -9494,25 +9502,25 @@
     </row>
     <row r="115" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
-        <v>449</v>
+        <v>104</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>285</v>
+        <v>57</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>286</v>
+        <v>153</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>324</v>
+        <v>72</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>325</v>
+        <v>180</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>326</v>
+        <v>191</v>
       </c>
       <c r="H115" s="5" t="s">
         <v>12</v>
@@ -9545,51 +9553,33 @@
         <v>13</v>
       </c>
       <c r="U115" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V115" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="W115" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="X115" s="8">
-        <v>0.08</v>
-      </c>
-      <c r="Y115" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="Z115" s="8">
-        <v>0.08</v>
-      </c>
-      <c r="AA115" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="AB115" s="8">
-        <v>0.02</v>
       </c>
     </row>
     <row r="116" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
-        <v>105</v>
+        <v>449</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>58</v>
+        <v>285</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>155</v>
+        <v>286</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>159</v>
+        <v>108</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>198</v>
+        <v>324</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>199</v>
+        <v>325</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>218</v>
+        <v>326</v>
       </c>
       <c r="H116" s="5" t="s">
         <v>12</v>
@@ -9607,10 +9597,7 @@
         <v>12</v>
       </c>
       <c r="M116" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N116" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="O116" s="5" t="s">
         <v>13</v>
@@ -9625,30 +9612,42 @@
         <v>13</v>
       </c>
       <c r="U116" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V116" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W116" s="5" t="s">
-        <v>245</v>
+        <v>372</v>
       </c>
       <c r="X116" s="8">
-        <v>0.2</v>
+        <v>0.08</v>
+      </c>
+      <c r="Y116" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="Z116" s="8">
+        <v>0.08</v>
+      </c>
+      <c r="AA116" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="AB116" s="8">
+        <v>0.02</v>
       </c>
     </row>
     <row r="117" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>58</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>107</v>
+        <v>159</v>
       </c>
       <c r="E117" s="5" t="s">
         <v>198</v>
@@ -9666,10 +9665,10 @@
         <v>12</v>
       </c>
       <c r="J117" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K117" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L117" s="5" t="s">
         <v>12</v>
@@ -9693,7 +9692,7 @@
         <v>13</v>
       </c>
       <c r="U117" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V117" s="5" t="s">
         <v>13</v>
@@ -9707,25 +9706,25 @@
     </row>
     <row r="118" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
-        <v>450</v>
+        <v>106</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>287</v>
+        <v>58</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="D118" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>72</v>
+        <v>198</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>327</v>
+        <v>218</v>
       </c>
       <c r="H118" s="5" t="s">
         <v>12</v>
@@ -9734,16 +9733,19 @@
         <v>12</v>
       </c>
       <c r="J118" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K118" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L118" s="5" t="s">
         <v>12</v>
       </c>
       <c r="M118" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="N118" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="O118" s="5" t="s">
         <v>13</v>
@@ -9761,36 +9763,24 @@
         <v>12</v>
       </c>
       <c r="V118" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W118" s="5" t="s">
-        <v>342</v>
+        <v>245</v>
       </c>
       <c r="X118" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="Y118" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="Z118" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="AA118" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="AB118" s="8">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="119" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B119" s="5" t="s">
         <v>287</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D119" s="5" t="s">
         <v>107</v>
@@ -9861,13 +9851,13 @@
     </row>
     <row r="120" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D120" s="5" t="s">
         <v>107</v>
@@ -9876,10 +9866,10 @@
         <v>72</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H120" s="5" t="s">
         <v>12</v>
@@ -9915,51 +9905,51 @@
         <v>12</v>
       </c>
       <c r="V120" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W120" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="X120" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="Y120" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z120" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AA120" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="X120" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="Y120" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="Z120" s="8">
-        <v>0.03</v>
-      </c>
-      <c r="AA120" s="5" t="s">
-        <v>375</v>
-      </c>
       <c r="AB120" s="8">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="121" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>290</v>
+        <v>130</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="E121" s="5" t="s">
         <v>72</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>191</v>
+        <v>328</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I121" s="5" t="s">
         <v>12</v>
@@ -9974,10 +9964,7 @@
         <v>12</v>
       </c>
       <c r="M121" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N121" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="O121" s="5" t="s">
         <v>13</v>
@@ -9995,36 +9982,36 @@
         <v>12</v>
       </c>
       <c r="V121" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W121" s="5" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="X121" s="8">
         <v>0.2</v>
       </c>
       <c r="Y121" s="5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="Z121" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="AA121" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="AB121" s="8">
         <v>0.02</v>
-      </c>
-      <c r="AA121" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="AB121" s="8">
-        <v>0.1</v>
       </c>
     </row>
     <row r="122" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B122" s="5" t="s">
         <v>289</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>158</v>
+        <v>290</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>162</v>
@@ -10039,7 +10026,7 @@
         <v>191</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I122" s="5" t="s">
         <v>12</v>
@@ -10098,25 +10085,25 @@
     </row>
     <row r="123" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E123" s="9" t="s">
-        <v>173</v>
+        <v>162</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>329</v>
+        <v>191</v>
       </c>
       <c r="H123" s="5" t="s">
         <v>12</v>
@@ -10128,7 +10115,7 @@
         <v>13</v>
       </c>
       <c r="K123" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L123" s="5" t="s">
         <v>12</v>
@@ -10137,7 +10124,7 @@
         <v>12</v>
       </c>
       <c r="N123" s="5" t="s">
-        <v>402</v>
+        <v>19</v>
       </c>
       <c r="O123" s="5" t="s">
         <v>13</v>
@@ -10152,51 +10139,51 @@
         <v>13</v>
       </c>
       <c r="U123" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V123" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W123" s="5" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="X123" s="8">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="Y123" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="Z123" s="8">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="AA123" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="AB123" s="5" t="s">
-        <v>358</v>
+        <v>377</v>
+      </c>
+      <c r="AB123" s="8">
+        <v>0.1</v>
       </c>
     </row>
     <row r="124" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
-        <v>119</v>
+        <v>455</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>59</v>
+        <v>291</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D124" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E124" s="5" t="s">
-        <v>72</v>
+      <c r="E124" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>219</v>
+        <v>329</v>
       </c>
       <c r="H124" s="5" t="s">
         <v>12</v>
@@ -10207,14 +10194,17 @@
       <c r="J124" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K124" s="11" t="s">
-        <v>13</v>
+      <c r="K124" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="L124" s="5" t="s">
         <v>12</v>
       </c>
       <c r="M124" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="N124" s="5" t="s">
+        <v>402</v>
       </c>
       <c r="O124" s="5" t="s">
         <v>13</v>
@@ -10229,9 +10219,86 @@
         <v>13</v>
       </c>
       <c r="U124" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V124" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="W124" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="X124" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="Y124" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="Z124" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="AA124" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="AB124" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="125" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="G125" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="H125" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I125" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J125" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K125" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L125" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M125" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O125" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q125" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="R125" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S125" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="U125" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="V125" s="5" t="s">
         <v>13</v>
       </c>
     </row>
